--- a/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm_131.xlsx
+++ b/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm_131.xlsx
@@ -507,34 +507,34 @@
         <v>100000</v>
       </c>
       <c r="C2" t="n">
-        <v>49.00692001095219</v>
+        <v>46.2005116883768</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004900692001095219</v>
+        <v>0.000462005116883768</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995099307998905</v>
+        <v>0.9995379948831162</v>
       </c>
       <c r="F2" t="n">
-        <v>64.91523560903161</v>
+        <v>69.45303259125787</v>
       </c>
       <c r="G2" t="n">
         <v>100000</v>
       </c>
       <c r="H2" t="n">
-        <v>2338213.625244919</v>
+        <v>2371227.127774915</v>
       </c>
       <c r="I2" t="n">
-        <v>47591113.61750585</v>
+        <v>49640558.06197773</v>
       </c>
       <c r="J2" t="n">
-        <v>47.12203847206941</v>
+        <v>44.42356893113153</v>
       </c>
       <c r="K2" t="n">
-        <v>10068.70672134908</v>
+        <v>8798.956624041519</v>
       </c>
       <c r="L2" t="n">
-        <v>507786.1784177672</v>
+        <v>461974.8946219205</v>
       </c>
     </row>
     <row r="3">
@@ -542,37 +542,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99950.99307998904</v>
+        <v>99953.79948831162</v>
       </c>
       <c r="C3" t="n">
-        <v>51.90641278236354</v>
+        <v>48.71157621430764</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0005193186298891872</v>
+        <v>0.00048734091614</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994806813701108</v>
+        <v>0.99951265908386</v>
       </c>
       <c r="F3" t="n">
-        <v>63.94681901007349</v>
+        <v>68.4849039698797</v>
       </c>
       <c r="G3" t="n">
-        <v>96106.72411537408</v>
+        <v>96109.42258491501</v>
       </c>
       <c r="H3" t="n">
-        <v>2238213.625244919</v>
+        <v>2271227.127774915</v>
       </c>
       <c r="I3" t="n">
-        <v>45252899.99226093</v>
+        <v>47269330.93420281</v>
       </c>
       <c r="J3" t="n">
-        <v>47.99039643339823</v>
+        <v>45.03659043482584</v>
       </c>
       <c r="K3" t="n">
-        <v>10021.58468287701</v>
+        <v>8754.533055110387</v>
       </c>
       <c r="L3" t="n">
-        <v>497717.4716964181</v>
+        <v>453175.937997879</v>
       </c>
     </row>
     <row r="4">
@@ -580,37 +580,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99899.08666720668</v>
+        <v>99905.08791209731</v>
       </c>
       <c r="C4" t="n">
-        <v>55.02050211614402</v>
+        <v>51.39612353697329</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000550760812252804</v>
+        <v>0.0005144495101410129</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994492391877472</v>
+        <v>0.999485550489859</v>
       </c>
       <c r="F4" t="n">
-        <v>62.97978524517268</v>
+        <v>67.51805194963086</v>
       </c>
       <c r="G4" t="n">
-        <v>92362.32125296473</v>
+        <v>92367.86974121421</v>
       </c>
       <c r="H4" t="n">
-        <v>2142106.901129545</v>
+        <v>2175117.70519</v>
       </c>
       <c r="I4" t="n">
-        <v>43014686.36701601</v>
+        <v>44998103.8064279</v>
       </c>
       <c r="J4" t="n">
-        <v>48.91302603349738</v>
+        <v>45.69096667416974</v>
       </c>
       <c r="K4" t="n">
-        <v>9973.594286443607</v>
+        <v>8709.496464675562</v>
       </c>
       <c r="L4" t="n">
-        <v>487695.8870135411</v>
+        <v>444421.4049427686</v>
       </c>
     </row>
     <row r="5">
@@ -618,37 +618,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99844.06616509054</v>
+        <v>99853.69178856033</v>
       </c>
       <c r="C5" t="n">
-        <v>58.36485282003648</v>
+        <v>54.26597723556107</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0005845600551116492</v>
+        <v>0.0005434548914873272</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994154399448884</v>
+        <v>0.9994565451085127</v>
       </c>
       <c r="F5" t="n">
-        <v>62.01421562534783</v>
+        <v>66.55254709963998</v>
       </c>
       <c r="G5" t="n">
-        <v>88761.01125566337</v>
+        <v>88769.56839987794</v>
       </c>
       <c r="H5" t="n">
-        <v>2049744.579876581</v>
+        <v>2082749.835448785</v>
       </c>
       <c r="I5" t="n">
-        <v>40872579.46588647</v>
+        <v>42822986.1012379</v>
       </c>
       <c r="J5" t="n">
-        <v>49.89052079940027</v>
+        <v>46.38678477128128</v>
       </c>
       <c r="K5" t="n">
-        <v>9924.681260410111</v>
+        <v>8663.805498001391</v>
       </c>
       <c r="L5" t="n">
-        <v>477722.2927270976</v>
+        <v>435711.908478093</v>
       </c>
     </row>
     <row r="6">
@@ -656,37 +656,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99785.7013122705</v>
+        <v>99799.42581132478</v>
       </c>
       <c r="C6" t="n">
-        <v>61.95624008843515</v>
+        <v>57.33374392484049</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006208929663634732</v>
+        <v>0.0005744897173379782</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9993791070336365</v>
+        <v>0.999425510282662</v>
       </c>
       <c r="F6" t="n">
-        <v>61.05019541096939</v>
+        <v>65.58846319823596</v>
       </c>
       <c r="G6" t="n">
-        <v>85297.2356865692</v>
+        <v>85308.96744588058</v>
       </c>
       <c r="H6" t="n">
-        <v>1960983.568620917</v>
+        <v>1993980.267048907</v>
       </c>
       <c r="I6" t="n">
-        <v>38822834.88600989</v>
+        <v>40740236.26578912</v>
       </c>
       <c r="J6" t="n">
-        <v>50.92351316157525</v>
+        <v>47.12415826382568</v>
       </c>
       <c r="K6" t="n">
-        <v>9874.790739610709</v>
+        <v>8617.418713230109</v>
       </c>
       <c r="L6" t="n">
-        <v>467797.6114666874</v>
+        <v>427048.1029800916</v>
       </c>
     </row>
     <row r="7">
@@ -694,37 +694,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99723.74507218206</v>
+        <v>99742.09206739994</v>
       </c>
       <c r="C7" t="n">
-        <v>65.81262301335532</v>
+        <v>60.61286177990573</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0006599493727970085</v>
+        <v>0.0006076959137667481</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999340050627203</v>
+        <v>0.9993923040862333</v>
       </c>
       <c r="F7" t="n">
-        <v>60.08781395850356</v>
+        <v>64.62587734510333</v>
       </c>
       <c r="G7" t="n">
-        <v>81965.64926238573</v>
+        <v>81980.72915508288</v>
       </c>
       <c r="H7" t="n">
-        <v>1875686.332934348</v>
+        <v>1908671.299603027</v>
       </c>
       <c r="I7" t="n">
-        <v>36861851.31738897</v>
+        <v>38746255.99874021</v>
       </c>
       <c r="J7" t="n">
-        <v>52.01267194385677</v>
+        <v>47.90322511073306</v>
       </c>
       <c r="K7" t="n">
-        <v>9823.867226449134</v>
+        <v>8570.294554966284</v>
       </c>
       <c r="L7" t="n">
-        <v>457922.8207270767</v>
+        <v>418430.6842668615</v>
       </c>
     </row>
     <row r="8">
@@ -732,37 +732,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99657.93244916871</v>
+        <v>99681.47920562002</v>
       </c>
       <c r="C8" t="n">
-        <v>69.95322212839608</v>
+        <v>64.11765157077124</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0007019333073569056</v>
+        <v>0.000643225322113361</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9992980666926431</v>
+        <v>0.9993567746778866</v>
       </c>
       <c r="F8" t="n">
-        <v>59.12716486856024</v>
+        <v>63.66487007445495</v>
       </c>
       <c r="G8" t="n">
-        <v>78761.11161881164</v>
+        <v>78779.72096246894</v>
       </c>
       <c r="H8" t="n">
-        <v>1793720.683671962</v>
+        <v>1826690.570447944</v>
       </c>
       <c r="I8" t="n">
-        <v>34986164.98445462</v>
+        <v>36837584.69913719</v>
       </c>
       <c r="J8" t="n">
-        <v>53.15869958624891</v>
+        <v>48.7241455693123</v>
       </c>
       <c r="K8" t="n">
-        <v>9771.854554505277</v>
+        <v>8522.391329855549</v>
       </c>
       <c r="L8" t="n">
-        <v>448098.9535006275</v>
+        <v>409860.3897118953</v>
       </c>
     </row>
     <row r="9">
@@ -770,37 +770,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99587.97922704031</v>
+        <v>99617.36155404925</v>
       </c>
       <c r="C9" t="n">
-        <v>74.39860106511503</v>
+        <v>67.86337025757881</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007470640698060693</v>
+        <v>0.0006812403902181074</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9992529359301939</v>
+        <v>0.9993187596097819</v>
       </c>
       <c r="F9" t="n">
-        <v>58.1683461347998</v>
+        <v>62.70552546893406</v>
       </c>
       <c r="G9" t="n">
-        <v>75678.67939542494</v>
+        <v>75701.00754911237</v>
       </c>
       <c r="H9" t="n">
-        <v>1714959.57205315</v>
+        <v>1747910.849485475</v>
       </c>
       <c r="I9" t="n">
-        <v>33192444.30078267</v>
+        <v>35010894.12868924</v>
       </c>
       <c r="J9" t="n">
-        <v>54.3623290641297</v>
+        <v>49.58709992563578</v>
       </c>
       <c r="K9" t="n">
-        <v>9718.695854919028</v>
+        <v>8473.667184286238</v>
       </c>
       <c r="L9" t="n">
-        <v>438327.0989461223</v>
+        <v>401337.9983820397</v>
       </c>
     </row>
     <row r="10">
@@ -808,37 +808,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99513.5806259752</v>
+        <v>99549.49818379167</v>
       </c>
       <c r="C10" t="n">
-        <v>79.17075237488798</v>
+        <v>71.86626718468067</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0007955773661934007</v>
+        <v>0.0007219149116352019</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9992044226338066</v>
+        <v>0.9992780850883648</v>
       </c>
       <c r="F10" t="n">
-        <v>57.21146029320089</v>
+        <v>61.74793127392537</v>
       </c>
       <c r="G10" t="n">
-        <v>72713.59862807524</v>
+        <v>72739.84323575933</v>
       </c>
       <c r="H10" t="n">
-        <v>1639280.892657725</v>
+        <v>1672209.841936363</v>
       </c>
       <c r="I10" t="n">
-        <v>31477484.72872952</v>
+        <v>33262983.27920377</v>
       </c>
       <c r="J10" t="n">
-        <v>55.62432046439247</v>
+        <v>50.4922860595208</v>
       </c>
       <c r="K10" t="n">
-        <v>9664.333525854898</v>
+        <v>8424.080084360603</v>
       </c>
       <c r="L10" t="n">
-        <v>428608.4030912033</v>
+        <v>392864.3311977534</v>
       </c>
     </row>
     <row r="11">
@@ -846,37 +846,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99434.40987360031</v>
+        <v>99477.63191660699</v>
       </c>
       <c r="C11" t="n">
-        <v>84.29318753489261</v>
+        <v>76.14364289419774</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0008477265329179806</v>
+        <v>0.0007654348161205693</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999152273467082</v>
+        <v>0.9992345651838794</v>
       </c>
       <c r="F11" t="n">
-        <v>56.25661457113546</v>
+        <v>60.79217901192069</v>
       </c>
       <c r="G11" t="n">
-        <v>69861.29743730025</v>
+        <v>69891.66467140136</v>
       </c>
       <c r="H11" t="n">
-        <v>1566567.29402965</v>
+        <v>1599469.998700603</v>
       </c>
       <c r="I11" t="n">
-        <v>29838203.83607179</v>
+        <v>31590773.4372674</v>
       </c>
       <c r="J11" t="n">
-        <v>56.94545717468687</v>
+        <v>51.4399168231871</v>
       </c>
       <c r="K11" t="n">
-        <v>9608.709205390507</v>
+        <v>8373.587798301083</v>
       </c>
       <c r="L11" t="n">
-        <v>418944.0695653483</v>
+        <v>384440.2511133928</v>
       </c>
     </row>
     <row r="12">
@@ -884,37 +884,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>99350.11668606542</v>
+        <v>99401.48827371279</v>
       </c>
       <c r="C12" t="n">
-        <v>89.79103111581155</v>
+        <v>80.71391055945219</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0009037838516037233</v>
+        <v>0.0008119990149161316</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9990962161483963</v>
+        <v>0.9991880009850839</v>
       </c>
       <c r="F12" t="n">
-        <v>55.30392103563822</v>
+        <v>59.83836409654795</v>
       </c>
       <c r="G12" t="n">
-        <v>67117.37900176785</v>
+        <v>67152.08380567812</v>
       </c>
       <c r="H12" t="n">
-        <v>1496705.99659235</v>
+        <v>1529578.334029202</v>
       </c>
       <c r="I12" t="n">
-        <v>28271636.54204214</v>
+        <v>29991303.4385668</v>
       </c>
       <c r="J12" t="n">
-        <v>58.3265416382352</v>
+        <v>52.4302172113232</v>
       </c>
       <c r="K12" t="n">
-        <v>9551.763748215819</v>
+        <v>8322.147881477893</v>
       </c>
       <c r="L12" t="n">
-        <v>409335.3603599578</v>
+        <v>376066.6633150917</v>
       </c>
     </row>
     <row r="13">
@@ -922,37 +922,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99260.32565494961</v>
+        <v>99320.77436315334</v>
       </c>
       <c r="C13" t="n">
-        <v>95.69111903743399</v>
+        <v>85.59666001380383</v>
       </c>
       <c r="D13" t="n">
-        <v>0.000964041961438622</v>
+        <v>0.0008618203045903661</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9990359580385614</v>
+        <v>0.9991381796954096</v>
       </c>
       <c r="F13" t="n">
-        <v>54.35349674019601</v>
+        <v>58.88658594583521</v>
       </c>
       <c r="G13" t="n">
-        <v>64477.61480621547</v>
+        <v>64516.88113440224</v>
       </c>
       <c r="H13" t="n">
-        <v>1429588.617590582</v>
+        <v>1462426.250223524</v>
       </c>
       <c r="I13" t="n">
-        <v>26774930.54544979</v>
+        <v>28461725.1045376</v>
       </c>
       <c r="J13" t="n">
-        <v>59.76839062179605</v>
+        <v>53.46342129852979</v>
       </c>
       <c r="K13" t="n">
-        <v>9493.437206577584</v>
+        <v>8269.717664266573</v>
       </c>
       <c r="L13" t="n">
-        <v>399783.596611742</v>
+        <v>367744.5154336139</v>
       </c>
     </row>
     <row r="14">
@@ -960,37 +960,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99164.63453591218</v>
+        <v>99235.17770313953</v>
       </c>
       <c r="C14" t="n">
-        <v>102.0221007768414</v>
+        <v>90.81272431993236</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00102881537610966</v>
+        <v>0.0009151263334419291</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9989711846238903</v>
+        <v>0.9990848736665581</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40546386931685</v>
+        <v>57.93694809424111</v>
       </c>
       <c r="G14" t="n">
-        <v>61937.93815381615</v>
+        <v>61981.99920793439</v>
       </c>
       <c r="H14" t="n">
-        <v>1365111.002784366</v>
+        <v>1397909.369089122</v>
       </c>
       <c r="I14" t="n">
-        <v>25345341.92785921</v>
+        <v>26999298.85431407</v>
       </c>
       <c r="J14" t="n">
-        <v>61.27182993959153</v>
+        <v>54.53976891784379</v>
       </c>
       <c r="K14" t="n">
-        <v>9433.668815955789</v>
+        <v>8216.254242968043</v>
       </c>
       <c r="L14" t="n">
-        <v>390290.1594051645</v>
+        <v>359474.7977693473</v>
       </c>
     </row>
     <row r="15">
@@ -998,37 +998,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99062.61243513534</v>
+        <v>99144.36497881961</v>
       </c>
       <c r="C15" t="n">
-        <v>108.8145453199246</v>
+        <v>96.38424878942273</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001098442112973497</v>
+        <v>0.0009721606347472544</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9989015578870265</v>
+        <v>0.9990278393652527</v>
       </c>
       <c r="F15" t="n">
-        <v>52.45994988007146</v>
+        <v>56.98955830294208</v>
       </c>
       <c r="G15" t="n">
-        <v>59494.43793334516</v>
+        <v>59543.53639255752</v>
       </c>
       <c r="H15" t="n">
-        <v>1303173.06463055</v>
+        <v>1335927.369881187</v>
       </c>
       <c r="I15" t="n">
-        <v>23980230.92507484</v>
+        <v>25601389.48522495</v>
       </c>
       <c r="J15" t="n">
-        <v>62.83768857084058</v>
+        <v>55.65950205238939</v>
       </c>
       <c r="K15" t="n">
-        <v>9372.396986016196</v>
+        <v>8161.714474050199</v>
       </c>
       <c r="L15" t="n">
-        <v>380856.4905892087</v>
+        <v>351258.5435263793</v>
       </c>
     </row>
     <row r="16">
@@ -1036,37 +1036,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>98953.79788981541</v>
+        <v>99047.98073003018</v>
       </c>
       <c r="C16" t="n">
-        <v>116.1010505579682</v>
+        <v>102.3347623195129</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00117328544263906</v>
+        <v>0.001033183731412368</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9988267145573609</v>
+        <v>0.9989668162685876</v>
       </c>
       <c r="F16" t="n">
-        <v>51.51708763972916</v>
+        <v>56.04452866782329</v>
       </c>
       <c r="G16" t="n">
-        <v>57143.35263195334</v>
+        <v>57197.74087540676</v>
       </c>
       <c r="H16" t="n">
-        <v>1243678.626697205</v>
+        <v>1276383.83348863</v>
       </c>
       <c r="I16" t="n">
-        <v>22677057.86044429</v>
+        <v>24265462.11534376</v>
       </c>
       <c r="J16" t="n">
-        <v>64.46679210255894</v>
+        <v>56.82286090962548</v>
       </c>
       <c r="K16" t="n">
-        <v>9309.559297445356</v>
+        <v>8106.054971997809</v>
       </c>
       <c r="L16" t="n">
-        <v>371484.0936031925</v>
+        <v>343096.8290523291</v>
       </c>
     </row>
     <row r="17">
@@ -1074,37 +1074,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>98837.69683925745</v>
+        <v>98945.64596771066</v>
       </c>
       <c r="C17" t="n">
-        <v>123.9163557265999</v>
+        <v>108.6892508640192</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001253735767721587</v>
+        <v>0.001098474316894027</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9987462642322784</v>
+        <v>0.998901525683106</v>
       </c>
       <c r="F17" t="n">
-        <v>50.57701555853745</v>
+        <v>55.10197572457629</v>
       </c>
       <c r="G17" t="n">
-        <v>54881.06458477566</v>
+        <v>54941.00490390457</v>
       </c>
       <c r="H17" t="n">
-        <v>1186535.274065252</v>
+        <v>1219186.092613223</v>
       </c>
       <c r="I17" t="n">
-        <v>21433379.23374708</v>
+        <v>22989078.28185513</v>
       </c>
       <c r="J17" t="n">
-        <v>66.15995542362661</v>
+        <v>58.03007964546918</v>
       </c>
       <c r="K17" t="n">
-        <v>9245.092505342796</v>
+        <v>8049.232111088184</v>
       </c>
       <c r="L17" t="n">
-        <v>362174.5343057471</v>
+        <v>334990.7740803313</v>
       </c>
     </row>
     <row r="18">
@@ -1112,37 +1112,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98713.78048353085</v>
+        <v>98836.95671684665</v>
       </c>
       <c r="C18" t="n">
-        <v>132.2974563594035</v>
+        <v>115.4742327969516</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00134021264013362</v>
+        <v>0.001168330517579252</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9986597873598664</v>
+        <v>0.9988316694824207</v>
       </c>
       <c r="F18" t="n">
-        <v>49.63987771661997</v>
+        <v>54.16202055026029</v>
       </c>
       <c r="G18" t="n">
-        <v>52704.0944530145</v>
+        <v>52769.85925103199</v>
       </c>
       <c r="H18" t="n">
-        <v>1131654.209480476</v>
+        <v>1164245.087709318</v>
       </c>
       <c r="I18" t="n">
-        <v>20246843.95968183</v>
+        <v>21769892.18924191</v>
       </c>
       <c r="J18" t="n">
-        <v>67.91797458915985</v>
+        <v>59.28138170321395</v>
       </c>
       <c r="K18" t="n">
-        <v>9178.932549919173</v>
+        <v>7991.202031442715</v>
       </c>
       <c r="L18" t="n">
-        <v>352929.4418004043</v>
+        <v>326941.541969243</v>
       </c>
     </row>
     <row r="19">
@@ -1150,37 +1150,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98581.48302717145</v>
+        <v>98721.48248404969</v>
       </c>
       <c r="C19" t="n">
-        <v>141.2837210832127</v>
+        <v>122.7178358578939</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001433166926939733</v>
+        <v>0.00124307124214551</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9985668330730603</v>
+        <v>0.9987569287578545</v>
       </c>
       <c r="F19" t="n">
-        <v>48.70582398389137</v>
+        <v>53.22478886063666</v>
       </c>
       <c r="G19" t="n">
-        <v>50609.09592254017</v>
+        <v>50680.96789813523</v>
       </c>
       <c r="H19" t="n">
-        <v>1078950.115027462</v>
+        <v>1111475.228458286</v>
       </c>
       <c r="I19" t="n">
-        <v>19115189.75020136</v>
+        <v>20605647.10153259</v>
       </c>
       <c r="J19" t="n">
-        <v>69.74161776779331</v>
+        <v>60.5769747291074</v>
       </c>
       <c r="K19" t="n">
-        <v>9111.014575330009</v>
+        <v>7931.920649739502</v>
       </c>
       <c r="L19" t="n">
-        <v>343750.5092504851</v>
+        <v>318950.3399378004</v>
       </c>
     </row>
     <row r="20">
@@ -1188,37 +1188,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>98440.19930608824</v>
+        <v>98598.76464819179</v>
       </c>
       <c r="C20" t="n">
-        <v>150.9170094103234</v>
+        <v>130.4498752893032</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001533083135488833</v>
+        <v>0.001323037623795376</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9984669168645112</v>
+        <v>0.9986769623762046</v>
       </c>
       <c r="F20" t="n">
-        <v>47.77501013180996</v>
+        <v>52.29041110253927</v>
       </c>
       <c r="G20" t="n">
-        <v>48592.8506154439</v>
+        <v>48671.122927324</v>
       </c>
       <c r="H20" t="n">
-        <v>1028341.019104921</v>
+        <v>1060794.260560151</v>
       </c>
       <c r="I20" t="n">
-        <v>18036239.63517389</v>
+        <v>19494171.8730743</v>
       </c>
       <c r="J20" t="n">
-        <v>71.63161517679346</v>
+        <v>61.91704502424938</v>
       </c>
       <c r="K20" t="n">
-        <v>9041.272957562218</v>
+        <v>7871.343675010393</v>
       </c>
       <c r="L20" t="n">
-        <v>334639.4946751551</v>
+        <v>311018.4192880609</v>
       </c>
     </row>
     <row r="21">
@@ -1226,37 +1226,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98289.28229667792</v>
+        <v>98468.31477290249</v>
       </c>
       <c r="C21" t="n">
-        <v>161.2417894842527</v>
+        <v>138.7019326825395</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001640481909284452</v>
+        <v>0.001408594561635668</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9983595180907155</v>
+        <v>0.9985914054383643</v>
       </c>
       <c r="F21" t="n">
-        <v>46.84759793571111</v>
+        <v>51.35902254049359</v>
       </c>
       <c r="G21" t="n">
-        <v>46652.26320736542</v>
+        <v>46737.23961586421</v>
       </c>
       <c r="H21" t="n">
-        <v>979748.1684894777</v>
+        <v>1012123.137632827</v>
       </c>
       <c r="I21" t="n">
-        <v>17007898.61606897</v>
+        <v>18433377.61251415</v>
       </c>
       <c r="J21" t="n">
-        <v>73.58864790274964</v>
+        <v>63.30175148920135</v>
       </c>
       <c r="K21" t="n">
-        <v>8969.641342385425</v>
+        <v>7809.426629986145</v>
       </c>
       <c r="L21" t="n">
-        <v>325598.2217175929</v>
+        <v>303147.0756130505</v>
       </c>
     </row>
     <row r="22">
@@ -1264,37 +1264,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>98128.04050719367</v>
+        <v>98329.61284021995</v>
       </c>
       <c r="C22" t="n">
-        <v>172.3052545031633</v>
+        <v>147.5074349426401</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00175592270682845</v>
+        <v>0.001500132367879159</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9982440772931716</v>
+        <v>0.9984998676321208</v>
       </c>
       <c r="F22" t="n">
-        <v>45.92375526638664</v>
+        <v>50.4307633367497</v>
       </c>
       <c r="G22" t="n">
-        <v>44784.35674379476</v>
+        <v>44876.3517253033</v>
       </c>
       <c r="H22" t="n">
-        <v>933095.9052821123</v>
+        <v>965385.8980169632</v>
       </c>
       <c r="I22" t="n">
-        <v>16028150.44757949</v>
+        <v>17421254.47488132</v>
       </c>
       <c r="J22" t="n">
-        <v>75.61333549724523</v>
+        <v>64.7312190148627</v>
       </c>
       <c r="K22" t="n">
-        <v>8896.052694482674</v>
+        <v>7746.124878496943</v>
       </c>
       <c r="L22" t="n">
-        <v>316628.5803752075</v>
+        <v>295337.6489830643</v>
       </c>
     </row>
     <row r="23">
@@ -1302,37 +1302,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>97955.7352526905</v>
+        <v>98182.10540527731</v>
       </c>
       <c r="C23" t="n">
-        <v>184.1574362774502</v>
+        <v>156.9017326587981</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001880006676509449</v>
+        <v>0.001598068527978058</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9981199933234906</v>
+        <v>0.9984019314720219</v>
       </c>
       <c r="F23" t="n">
-        <v>45.00365616949839</v>
+        <v>49.50577862384433</v>
       </c>
       <c r="G23" t="n">
-        <v>42986.26814892079</v>
+        <v>43085.60697839215</v>
       </c>
       <c r="H23" t="n">
-        <v>888311.5485383176</v>
+        <v>920509.5462916597</v>
       </c>
       <c r="I23" t="n">
-        <v>15095054.54229738</v>
+        <v>16455868.57686436</v>
       </c>
       <c r="J23" t="n">
-        <v>77.70622222903515</v>
+        <v>66.20553127019259</v>
       </c>
       <c r="K23" t="n">
-        <v>8820.43935898543</v>
+        <v>7681.39365948208</v>
       </c>
       <c r="L23" t="n">
-        <v>307732.5276807248</v>
+        <v>287591.5241045674</v>
       </c>
     </row>
     <row r="24">
@@ -1340,37 +1340,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97771.57781641305</v>
+        <v>98025.20367261852</v>
       </c>
       <c r="C24" t="n">
-        <v>196.8513140686087</v>
+        <v>166.9221770261364</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002013379741485188</v>
+        <v>0.001702849581252774</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9979866202585148</v>
+        <v>0.9982971504187472</v>
       </c>
       <c r="F24" t="n">
-        <v>44.08748093133803</v>
+        <v>48.58421856875946</v>
       </c>
       <c r="G24" t="n">
-        <v>41255.24392096403</v>
+        <v>41362.2627171838</v>
       </c>
       <c r="H24" t="n">
-        <v>845325.2803893967</v>
+        <v>877423.9393132677</v>
       </c>
       <c r="I24" t="n">
-        <v>14206742.99375906</v>
+        <v>15535359.0305727</v>
       </c>
       <c r="J24" t="n">
-        <v>79.86776186586435</v>
+        <v>67.72472283425353</v>
       </c>
       <c r="K24" t="n">
-        <v>8742.733136756395</v>
+        <v>7615.188128211887</v>
       </c>
       <c r="L24" t="n">
-        <v>298912.0883217394</v>
+        <v>279910.1304450853</v>
       </c>
     </row>
     <row r="25">
@@ -1378,37 +1378,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>97574.72650234443</v>
+        <v>97858.28149559238</v>
       </c>
       <c r="C25" t="n">
-        <v>210.442916500937</v>
+        <v>177.6081943021936</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002156735909435326</v>
+        <v>0.001814953130054642</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9978432640905647</v>
+        <v>0.9981850468699454</v>
       </c>
       <c r="F25" t="n">
-        <v>43.17541612937382</v>
+        <v>47.66623842769658</v>
       </c>
       <c r="G25" t="n">
-        <v>39588.63600829185</v>
+        <v>39703.68173599632</v>
       </c>
       <c r="H25" t="n">
-        <v>804070.0364684328</v>
+        <v>836061.6765960839</v>
       </c>
       <c r="I25" t="n">
-        <v>13361417.71336967</v>
+        <v>14657935.09125943</v>
       </c>
       <c r="J25" t="n">
-        <v>82.09830085062249</v>
+        <v>69.28877061676906</v>
       </c>
       <c r="K25" t="n">
-        <v>8662.865374890529</v>
+        <v>7547.463405377634</v>
       </c>
       <c r="L25" t="n">
-        <v>290169.355184983</v>
+        <v>272294.9423168734</v>
       </c>
     </row>
     <row r="26">
@@ -1416,37 +1416,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>97364.2835858435</v>
+        <v>97680.67330129018</v>
       </c>
       <c r="C26" t="n">
-        <v>224.9914139311025</v>
+        <v>189.0013565980956</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002310820823045789</v>
+        <v>0.001934889986017319</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9976891791769542</v>
+        <v>0.9980651100139827</v>
       </c>
       <c r="F26" t="n">
-        <v>42.26765466595422</v>
+        <v>46.75199859043965</v>
       </c>
       <c r="G26" t="n">
-        <v>37983.89786096846</v>
+        <v>38107.32828322584</v>
       </c>
       <c r="H26" t="n">
-        <v>764481.4004601409</v>
+        <v>796357.9948600875</v>
       </c>
       <c r="I26" t="n">
-        <v>12557347.67690123</v>
+        <v>13821873.41466335</v>
       </c>
       <c r="J26" t="n">
-        <v>84.39805972843303</v>
+        <v>70.89758450873866</v>
       </c>
       <c r="K26" t="n">
-        <v>8580.767074039908</v>
+        <v>7478.174634760864</v>
       </c>
       <c r="L26" t="n">
-        <v>281506.4898100925</v>
+        <v>264747.4789114958</v>
       </c>
     </row>
     <row r="27">
@@ -1454,37 +1454,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>97139.2921719124</v>
+        <v>97491.67194469209</v>
       </c>
       <c r="C27" t="n">
-        <v>240.5591981962598</v>
+        <v>201.1454475937747</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002476435568117274</v>
+        <v>0.002063206462474931</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9975235644318827</v>
+        <v>0.9979367935375251</v>
       </c>
       <c r="F27" t="n">
-        <v>41.3643957834749</v>
+        <v>45.84166461323517</v>
       </c>
       <c r="G27" t="n">
-        <v>36438.58065274124</v>
+        <v>36570.76422628534</v>
       </c>
       <c r="H27" t="n">
-        <v>726497.5025991724</v>
+        <v>758250.6665768616</v>
       </c>
       <c r="I27" t="n">
-        <v>11792866.27644109</v>
+        <v>13025515.41980327</v>
       </c>
       <c r="J27" t="n">
-        <v>86.76711267322919</v>
+        <v>72.5509972012682</v>
       </c>
       <c r="K27" t="n">
-        <v>8496.369014311473</v>
+        <v>7407.277050252126</v>
       </c>
       <c r="L27" t="n">
-        <v>272925.7227360526</v>
+        <v>257269.3042767349</v>
       </c>
     </row>
     <row r="28">
@@ -1492,37 +1492,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>96898.73297371613</v>
+        <v>97290.52649709831</v>
       </c>
       <c r="C28" t="n">
-        <v>257.2119461341318</v>
+        <v>214.0865215298828</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002654440757279053</v>
+        <v>0.002200486822694581</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9973455592427209</v>
+        <v>0.9977995131773054</v>
       </c>
       <c r="F28" t="n">
-        <v>40.46584505925763</v>
+        <v>44.93540723907601</v>
       </c>
       <c r="G28" t="n">
-        <v>34950.32966880873</v>
+        <v>35091.64537422693</v>
       </c>
       <c r="H28" t="n">
-        <v>690058.9219464313</v>
+        <v>721679.9023505764</v>
       </c>
       <c r="I28" t="n">
-        <v>11066368.77384192</v>
+        <v>12267264.7532264</v>
       </c>
       <c r="J28" t="n">
-        <v>89.20536495502421</v>
+        <v>74.24875310832461</v>
       </c>
       <c r="K28" t="n">
-        <v>8409.601901638245</v>
+        <v>7334.726053050858</v>
       </c>
       <c r="L28" t="n">
-        <v>264429.3537217411</v>
+        <v>249862.0272264828</v>
       </c>
     </row>
     <row r="29">
@@ -1530,37 +1530,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>96641.521027582</v>
+        <v>97076.43997556843</v>
       </c>
       <c r="C29" t="n">
-        <v>275.0186626715865</v>
+        <v>227.8729535605171</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002845760908430806</v>
+        <v>0.00234735589415791</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9971542390915692</v>
+        <v>0.9976526441058421</v>
       </c>
       <c r="F29" t="n">
-        <v>39.57221437833791</v>
+        <v>44.03340240423627</v>
       </c>
       <c r="G29" t="n">
-        <v>33516.88085505336</v>
+        <v>33667.71795287911</v>
       </c>
       <c r="H29" t="n">
-        <v>655108.5922776225</v>
+        <v>686588.2569763494</v>
       </c>
       <c r="I29" t="n">
-        <v>10376309.85189549</v>
+        <v>11545584.85087582</v>
       </c>
       <c r="J29" t="n">
-        <v>91.71252818254203</v>
+        <v>75.99049632647774</v>
       </c>
       <c r="K29" t="n">
-        <v>8320.39653668322</v>
+        <v>7260.477299942533</v>
       </c>
       <c r="L29" t="n">
-        <v>256019.7518201028</v>
+        <v>242527.3011734319</v>
       </c>
     </row>
     <row r="30">
@@ -1568,37 +1568,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>96366.50236491041</v>
+        <v>96848.5670220079</v>
       </c>
       <c r="C30" t="n">
-        <v>294.0516986056635</v>
+        <v>242.5554792491156</v>
       </c>
       <c r="D30" t="n">
-        <v>0.003051389138231664</v>
+        <v>0.002504481859747054</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9969486108617683</v>
+        <v>0.9974955181402529</v>
       </c>
       <c r="F30" t="n">
-        <v>38.68372188231744</v>
+        <v>43.13583122987021</v>
       </c>
       <c r="G30" t="n">
-        <v>32136.05752475338</v>
+        <v>32296.81522759574</v>
       </c>
       <c r="H30" t="n">
-        <v>621591.7114225691</v>
+        <v>652920.5390234702</v>
       </c>
       <c r="I30" t="n">
-        <v>9721201.259617867</v>
+        <v>10858996.59389948</v>
       </c>
       <c r="J30" t="n">
-        <v>94.28809315059651</v>
+        <v>77.77575756261147</v>
       </c>
       <c r="K30" t="n">
-        <v>8228.684008500679</v>
+        <v>7184.486803616055</v>
       </c>
       <c r="L30" t="n">
-        <v>247699.3552834197</v>
+        <v>235266.8238734894</v>
       </c>
     </row>
     <row r="31">
@@ -1606,37 +1606,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>96072.45066630475</v>
+        <v>96606.01154275879</v>
       </c>
       <c r="C31" t="n">
-        <v>314.3867374461265</v>
+        <v>258.1872206515546</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003272392192201989</v>
+        <v>0.002672579237341544</v>
       </c>
       <c r="E31" t="n">
-        <v>0.996727607807798</v>
+        <v>0.9973274207626585</v>
       </c>
       <c r="F31" t="n">
-        <v>37.80059189240577</v>
+        <v>42.24287999745718</v>
       </c>
       <c r="G31" t="n">
-        <v>30805.76721911227</v>
+        <v>30976.85426897175</v>
       </c>
       <c r="H31" t="n">
-        <v>589455.6538978157</v>
+        <v>620623.7237958746</v>
       </c>
       <c r="I31" t="n">
-        <v>9099609.548195297</v>
+        <v>10206076.05487601</v>
       </c>
       <c r="J31" t="n">
-        <v>96.931300117899</v>
+        <v>79.60393995904677</v>
       </c>
       <c r="K31" t="n">
-        <v>8134.395915350082</v>
+        <v>7106.711046053444</v>
       </c>
       <c r="L31" t="n">
-        <v>239470.6712749189</v>
+        <v>228082.3370698733</v>
       </c>
     </row>
     <row r="32">
@@ -1644,37 +1644,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>95758.06392885862</v>
+        <v>96347.82432210723</v>
       </c>
       <c r="C32" t="n">
-        <v>336.1027448465826</v>
+        <v>274.8236960518864</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003509915834308042</v>
+        <v>0.002852412060007747</v>
       </c>
       <c r="E32" t="n">
-        <v>0.996490084165692</v>
+        <v>0.9971475879399923</v>
       </c>
       <c r="F32" t="n">
-        <v>36.9230548047572</v>
+        <v>41.35474010685108</v>
       </c>
       <c r="G32" t="n">
-        <v>29523.99871825928</v>
+        <v>29705.83285712917</v>
       </c>
       <c r="H32" t="n">
-        <v>558649.8866787036</v>
+        <v>589646.8695269028</v>
       </c>
       <c r="I32" t="n">
-        <v>8510153.894297484</v>
+        <v>9585452.331080131</v>
       </c>
       <c r="J32" t="n">
-        <v>99.64110633971977</v>
+        <v>81.4743037444708</v>
       </c>
       <c r="K32" t="n">
-        <v>8037.464615232183</v>
+        <v>7027.107106094398</v>
       </c>
       <c r="L32" t="n">
-        <v>231336.2753595689</v>
+        <v>220975.6260238199</v>
       </c>
     </row>
     <row r="33">
@@ -1682,37 +1682,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>95421.96118401205</v>
+        <v>96073.00062605535</v>
       </c>
       <c r="C33" t="n">
-        <v>359.2818732151223</v>
+        <v>292.5228099958998</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003765190620241832</v>
+        <v>0.003044797269677102</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9962348093797582</v>
+        <v>0.9969552027303229</v>
       </c>
       <c r="F33" t="n">
-        <v>36.05134695620406</v>
+        <v>40.47160801567289</v>
       </c>
       <c r="G33" t="n">
-        <v>28288.81919967882</v>
+        <v>28481.82652041819</v>
       </c>
       <c r="H33" t="n">
-        <v>529125.8879604442</v>
+        <v>559941.0366697737</v>
       </c>
       <c r="I33" t="n">
-        <v>7951504.007618779</v>
+        <v>8995805.461553229</v>
       </c>
       <c r="J33" t="n">
-        <v>102.4161506811036</v>
+        <v>83.38594963921747</v>
       </c>
       <c r="K33" t="n">
-        <v>7937.823508892463</v>
+        <v>6945.632802349926</v>
       </c>
       <c r="L33" t="n">
-        <v>223298.8107443367</v>
+        <v>213948.5189177255</v>
       </c>
     </row>
     <row r="34">
@@ -1720,37 +1720,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>95062.67931079693</v>
+        <v>95780.47781605944</v>
       </c>
       <c r="C34" t="n">
-        <v>384.0093130637121</v>
+        <v>311.3448198008236</v>
       </c>
       <c r="D34" t="n">
-        <v>0.004039538080009675</v>
+        <v>0.003250608337940664</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9959604619199903</v>
+        <v>0.9967493916620593</v>
       </c>
       <c r="F34" t="n">
-        <v>35.18571045849907</v>
+        <v>39.59368515877563</v>
       </c>
       <c r="G34" t="n">
-        <v>27098.37154131776</v>
+        <v>27302.98570460904</v>
       </c>
       <c r="H34" t="n">
-        <v>500837.0687607654</v>
+        <v>531459.2101493553</v>
       </c>
       <c r="I34" t="n">
-        <v>7422378.119658334</v>
+        <v>8435864.424883455</v>
       </c>
       <c r="J34" t="n">
-        <v>105.2547151417342</v>
+        <v>85.33780094430469</v>
       </c>
       <c r="K34" t="n">
-        <v>7835.40735821136</v>
+        <v>6862.246852710709</v>
       </c>
       <c r="L34" t="n">
-        <v>215360.9872354442</v>
+        <v>207002.8861153756</v>
       </c>
     </row>
     <row r="35">
@@ -1758,37 +1758,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>94678.66999773322</v>
+        <v>95469.13299625862</v>
       </c>
       <c r="C35" t="n">
-        <v>410.3730815235289</v>
+        <v>331.3522742059463</v>
       </c>
       <c r="D35" t="n">
-        <v>0.004334377336873807</v>
+        <v>0.003470779128359025</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9956656226631262</v>
+        <v>0.996529220871641</v>
       </c>
       <c r="F35" t="n">
-        <v>34.32639299920876</v>
+        <v>38.72117784650735</v>
       </c>
       <c r="G35" t="n">
-        <v>25950.87176689457</v>
+        <v>26167.53306887208</v>
       </c>
       <c r="H35" t="n">
-        <v>473738.6972194476</v>
+        <v>504156.2244447464</v>
       </c>
       <c r="I35" t="n">
-        <v>6921541.050897568</v>
+        <v>7904405.2147341</v>
       </c>
       <c r="J35" t="n">
-        <v>108.1546831332174</v>
+        <v>87.32858424623633</v>
       </c>
       <c r="K35" t="n">
-        <v>7730.152643069626</v>
+        <v>6776.909051766405</v>
       </c>
       <c r="L35" t="n">
-        <v>207525.5798772329</v>
+        <v>200140.6392626649</v>
       </c>
     </row>
     <row r="36">
@@ -1796,37 +1796,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>94268.29691620969</v>
+        <v>95137.78072205267</v>
       </c>
       <c r="C36" t="n">
-        <v>438.4637372224547</v>
+        <v>352.6099192646681</v>
       </c>
       <c r="D36" t="n">
-        <v>0.004651232191159482</v>
+        <v>0.003706308015475224</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9953487678088405</v>
+        <v>0.9962936919845248</v>
       </c>
       <c r="F36" t="n">
-        <v>33.47364760744942</v>
+        <v>37.85429714050549</v>
       </c>
       <c r="G36" t="n">
-        <v>24844.60663118848</v>
+        <v>25073.76090505384</v>
       </c>
       <c r="H36" t="n">
-        <v>447787.8254525531</v>
+        <v>477988.6913758743</v>
       </c>
       <c r="I36" t="n">
-        <v>6447802.353678122</v>
+        <v>7400248.990289354</v>
       </c>
       <c r="J36" t="n">
-        <v>111.1134943650752</v>
+        <v>89.35680867356761</v>
       </c>
       <c r="K36" t="n">
-        <v>7621.997959936408</v>
+        <v>6689.580467520168</v>
       </c>
       <c r="L36" t="n">
-        <v>199795.4272341632</v>
+        <v>193363.7302108984</v>
       </c>
     </row>
     <row r="37">
@@ -1834,37 +1834,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>93829.83317898723</v>
+        <v>94785.17080278801</v>
       </c>
       <c r="C37" t="n">
-        <v>468.3740093939981</v>
+        <v>375.1845659639662</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004991738698933212</v>
+        <v>0.003958262276538838</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9950082613010668</v>
+        <v>0.9960417377234612</v>
       </c>
       <c r="F37" t="n">
-        <v>32.62773238272808</v>
+        <v>36.99325870577297</v>
       </c>
       <c r="G37" t="n">
-        <v>23777.93134331615</v>
+        <v>24020.02867695512</v>
       </c>
       <c r="H37" t="n">
-        <v>422943.2188213646</v>
+        <v>452914.9304708205</v>
       </c>
       <c r="I37" t="n">
-        <v>6000014.528225569</v>
+        <v>6922260.29891348</v>
       </c>
       <c r="J37" t="n">
-        <v>114.1280962182771</v>
+        <v>91.42074364747359</v>
       </c>
       <c r="K37" t="n">
-        <v>7510.884465571333</v>
+        <v>6600.2236588466</v>
       </c>
       <c r="L37" t="n">
-        <v>192173.4292742269</v>
+        <v>186674.1497433783</v>
       </c>
     </row>
     <row r="38">
@@ -1872,37 +1872,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>93361.45916959323</v>
+        <v>94409.98623682404</v>
       </c>
       <c r="C38" t="n">
-        <v>500.1983276716088</v>
+        <v>399.1449133909571</v>
       </c>
       <c r="D38" t="n">
-        <v>0.005357653277065721</v>
+        <v>0.00422778277278546</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9946423467229343</v>
+        <v>0.9957722172272145</v>
       </c>
       <c r="F38" t="n">
-        <v>31.78891018524615</v>
+        <v>36.13828263781541</v>
       </c>
       <c r="G38" t="n">
-        <v>22749.2674262011</v>
+        <v>23004.76067650168</v>
       </c>
       <c r="H38" t="n">
-        <v>399165.2874780484</v>
+        <v>428894.9017938653</v>
       </c>
       <c r="I38" t="n">
-        <v>5577071.309404204</v>
+        <v>6469345.36844266</v>
       </c>
       <c r="J38" t="n">
-        <v>117.1948915161834</v>
+        <v>93.51839507708284</v>
       </c>
       <c r="K38" t="n">
-        <v>7396.756369353056</v>
+        <v>6508.802915199127</v>
       </c>
       <c r="L38" t="n">
-        <v>184662.5448086555</v>
+        <v>180073.9260845317</v>
       </c>
     </row>
     <row r="39">
@@ -1910,37 +1910,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>92861.26084192163</v>
+        <v>94010.84132343308</v>
       </c>
       <c r="C39" t="n">
-        <v>534.0322375313879</v>
+        <v>424.5613205509231</v>
       </c>
       <c r="D39" t="n">
-        <v>0.005750861367696425</v>
+        <v>0.004516088937979723</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9942491386323036</v>
+        <v>0.9954839110620203</v>
       </c>
       <c r="F39" t="n">
-        <v>30.95744828614454</v>
+        <v>35.28959326366051</v>
       </c>
       <c r="G39" t="n">
-        <v>21757.10071060026</v>
+        <v>22026.44379386683</v>
       </c>
       <c r="H39" t="n">
-        <v>376416.0200518473</v>
+        <v>405890.1411173636</v>
       </c>
       <c r="I39" t="n">
-        <v>5177906.021926155</v>
+        <v>6040450.466648795</v>
       </c>
       <c r="J39" t="n">
-        <v>120.3096826439148</v>
+        <v>95.6474799620328</v>
       </c>
       <c r="K39" t="n">
-        <v>7279.561477836873</v>
+        <v>6415.284520122043</v>
       </c>
       <c r="L39" t="n">
-        <v>177265.7884393025</v>
+        <v>173565.1231693325</v>
       </c>
     </row>
     <row r="40">
@@ -1948,37 +1948,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>92327.22860439024</v>
+        <v>93586.28000288215</v>
       </c>
       <c r="C40" t="n">
-        <v>569.9716848014124</v>
+        <v>451.5055191780766</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00617338669661216</v>
+        <v>0.004824484092798342</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9938266133033878</v>
+        <v>0.9951755159072017</v>
       </c>
       <c r="F40" t="n">
-        <v>30.13361797631731</v>
+        <v>34.44741891563637</v>
       </c>
       <c r="G40" t="n">
-        <v>20799.97946216402</v>
+        <v>21083.62539875607</v>
       </c>
       <c r="H40" t="n">
-        <v>354658.9193412471</v>
+        <v>383863.6973234967</v>
       </c>
       <c r="I40" t="n">
-        <v>4801490.001874308</v>
+        <v>5634560.325531431</v>
       </c>
       <c r="J40" t="n">
-        <v>123.4676120207015</v>
+        <v>97.80539937963248</v>
       </c>
       <c r="K40" t="n">
-        <v>7159.251795192958</v>
+        <v>6319.637040160011</v>
       </c>
       <c r="L40" t="n">
-        <v>169986.2269614656</v>
+        <v>167149.8386492105</v>
       </c>
     </row>
     <row r="41">
@@ -1986,37 +1986,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>91757.25691958884</v>
+        <v>93134.77448370408</v>
       </c>
       <c r="C41" t="n">
-        <v>608.1121510849331</v>
+        <v>480.050259076648</v>
       </c>
       <c r="D41" t="n">
-        <v>0.006627401161499957</v>
+        <v>0.005154361104515726</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9933725988385</v>
+        <v>0.9948456388954843</v>
       </c>
       <c r="F41" t="n">
-        <v>29.31769413259914</v>
+        <v>33.61199167685502</v>
       </c>
       <c r="G41" t="n">
-        <v>19876.51264006009</v>
+        <v>20174.91133019351</v>
       </c>
       <c r="H41" t="n">
-        <v>333858.939879083</v>
+        <v>362780.0719247407</v>
       </c>
       <c r="I41" t="n">
-        <v>4446831.082533062</v>
+        <v>5250696.628207934</v>
       </c>
       <c r="J41" t="n">
-        <v>126.6630989974066</v>
+        <v>99.98920985327217</v>
       </c>
       <c r="K41" t="n">
-        <v>7035.784183172256</v>
+        <v>6221.831640780379</v>
       </c>
       <c r="L41" t="n">
-        <v>162826.9751662726</v>
+        <v>160830.2016090505</v>
       </c>
     </row>
     <row r="42">
@@ -2024,37 +2024,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>91149.1447685039</v>
+        <v>92654.72422462744</v>
       </c>
       <c r="C42" t="n">
-        <v>648.5476203907152</v>
+        <v>510.268876692755</v>
       </c>
       <c r="D42" t="n">
-        <v>0.007115235387428642</v>
+        <v>0.005507208412338316</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9928847646125714</v>
+        <v>0.9944927915876617</v>
       </c>
       <c r="F42" t="n">
-        <v>28.50995474034033</v>
+        <v>32.78354709743435</v>
       </c>
       <c r="G42" t="n">
-        <v>18985.36828567576</v>
+        <v>19298.96399225588</v>
       </c>
       <c r="H42" t="n">
-        <v>313982.4272390229</v>
+        <v>342605.1605945472</v>
       </c>
       <c r="I42" t="n">
-        <v>4112972.142653978</v>
+        <v>4887916.556283194</v>
       </c>
       <c r="J42" t="n">
-        <v>129.8897733361592</v>
+        <v>102.1955931226594</v>
       </c>
       <c r="K42" t="n">
-        <v>6909.121084174851</v>
+        <v>6121.842430927106</v>
       </c>
       <c r="L42" t="n">
-        <v>155791.1909831004</v>
+        <v>154608.3699682701</v>
       </c>
     </row>
     <row r="43">
@@ -2062,37 +2062,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>90500.59714811319</v>
+        <v>92144.45534793468</v>
       </c>
       <c r="C43" t="n">
-        <v>691.3693557806649</v>
+        <v>542.2347767600128</v>
       </c>
       <c r="D43" t="n">
-        <v>0.007639389988213785</v>
+        <v>0.005884616439617019</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9923606100117862</v>
+        <v>0.994115383560383</v>
       </c>
       <c r="F43" t="n">
-        <v>27.71068037162395</v>
+        <v>31.96232388059362</v>
       </c>
       <c r="G43" t="n">
-        <v>18125.2720398136</v>
+        <v>18454.50055327722</v>
       </c>
       <c r="H43" t="n">
-        <v>294997.0589533472</v>
+        <v>323306.1966022913</v>
       </c>
       <c r="I43" t="n">
-        <v>3798989.715414955</v>
+        <v>4545311.395688646</v>
       </c>
       <c r="J43" t="n">
-        <v>133.1404055332724</v>
+        <v>104.4208243660928</v>
       </c>
       <c r="K43" t="n">
-        <v>6779.231310838691</v>
+        <v>6019.646837804446</v>
       </c>
       <c r="L43" t="n">
-        <v>148882.0698989255</v>
+        <v>148486.527537343</v>
       </c>
     </row>
     <row r="44">
@@ -2100,37 +2100,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>89809.22779233252</v>
+        <v>91602.22057117466</v>
       </c>
       <c r="C44" t="n">
-        <v>736.6644635049214</v>
+        <v>576.0208159996484</v>
       </c>
       <c r="D44" t="n">
-        <v>0.008202547573489039</v>
+        <v>0.006288284415027712</v>
       </c>
       <c r="E44" t="n">
-        <v>0.991797452426511</v>
+        <v>0.9937117155849723</v>
       </c>
       <c r="F44" t="n">
-        <v>26.92015361865358</v>
+        <v>31.14856353787887</v>
       </c>
       <c r="G44" t="n">
-        <v>17295.00578659519</v>
+        <v>17640.29124609277</v>
       </c>
       <c r="H44" t="n">
-        <v>276871.7869135336</v>
+        <v>304851.6960490141</v>
       </c>
       <c r="I44" t="n">
-        <v>3503992.656461608</v>
+        <v>4222005.199086355</v>
       </c>
       <c r="J44" t="n">
-        <v>136.40683437338</v>
+        <v>106.6607389609182</v>
       </c>
       <c r="K44" t="n">
-        <v>6646.090905305418</v>
+        <v>5915.226013438354</v>
       </c>
       <c r="L44" t="n">
-        <v>142102.8385880868</v>
+        <v>142466.8806995386</v>
       </c>
     </row>
     <row r="45">
@@ -2138,37 +2138,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>89072.5633288276</v>
+        <v>91026.19975517501</v>
       </c>
       <c r="C45" t="n">
-        <v>784.5142209917095</v>
+        <v>611.6985770130998</v>
       </c>
       <c r="D45" t="n">
-        <v>0.008807585542312646</v>
+        <v>0.006720027625654268</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9911924144576874</v>
+        <v>0.9932799723743457</v>
       </c>
       <c r="F45" t="n">
-        <v>26.13865848214731</v>
+        <v>30.34251001291342</v>
       </c>
       <c r="G45" t="n">
-        <v>16493.40642196815</v>
+        <v>16855.15776689751</v>
       </c>
       <c r="H45" t="n">
-        <v>259576.7811269384</v>
+        <v>287211.4048029213</v>
       </c>
       <c r="I45" t="n">
-        <v>3227120.869548074</v>
+        <v>3917153.503037341</v>
       </c>
       <c r="J45" t="n">
-        <v>139.6798922553973</v>
+        <v>108.9106979118388</v>
       </c>
       <c r="K45" t="n">
-        <v>6509.684070932039</v>
+        <v>5808.565274477436</v>
       </c>
       <c r="L45" t="n">
-        <v>135456.7476827814</v>
+        <v>136551.6546861003</v>
       </c>
     </row>
     <row r="46">
@@ -2176,37 +2176,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>88288.04910783589</v>
+        <v>90414.50117816191</v>
       </c>
       <c r="C46" t="n">
-        <v>834.9921443093529</v>
+        <v>649.3375197091494</v>
       </c>
       <c r="D46" t="n">
-        <v>0.009457589704915614</v>
+        <v>0.007181785125702667</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9905424102950844</v>
+        <v>0.9928182148742973</v>
       </c>
       <c r="F46" t="n">
-        <v>25.36647971491492</v>
+        <v>29.54440927322596</v>
       </c>
       <c r="G46" t="n">
-        <v>15719.36474425244</v>
+        <v>16097.97177025885</v>
       </c>
       <c r="H46" t="n">
-        <v>243083.3747049702</v>
+        <v>270356.2470360238</v>
       </c>
       <c r="I46" t="n">
-        <v>2967544.088421136</v>
+        <v>3629942.09823442</v>
       </c>
       <c r="J46" t="n">
-        <v>142.9493290125532</v>
+        <v>111.1655521284869</v>
       </c>
       <c r="K46" t="n">
-        <v>6370.004178676641</v>
+        <v>5699.654576565597</v>
       </c>
       <c r="L46" t="n">
-        <v>128947.0636118494</v>
+        <v>130743.0894116228</v>
       </c>
     </row>
     <row r="47">
@@ -2214,37 +2214,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>87453.05696352654</v>
+        <v>89765.16365845276</v>
       </c>
       <c r="C47" t="n">
-        <v>888.1617704682585</v>
+        <v>689.0039968975561</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01015586877470365</v>
+        <v>0.007675627925317952</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9898441312252964</v>
+        <v>0.992324372074682</v>
       </c>
       <c r="F47" t="n">
-        <v>24.6039021211693</v>
+        <v>28.75450886988745</v>
       </c>
       <c r="G47" t="n">
-        <v>14971.82446353787</v>
+        <v>15367.65345773578</v>
       </c>
       <c r="H47" t="n">
-        <v>227364.0099607178</v>
+        <v>254258.275265765</v>
       </c>
       <c r="I47" t="n">
-        <v>2724460.713716165</v>
+        <v>3359585.851198396</v>
       </c>
       <c r="J47" t="n">
-        <v>146.2037351630657</v>
+        <v>113.4196057950055</v>
       </c>
       <c r="K47" t="n">
-        <v>6227.054849664088</v>
+        <v>5588.48902443711</v>
       </c>
       <c r="L47" t="n">
-        <v>122577.0594331727</v>
+        <v>125043.4348350572</v>
       </c>
     </row>
     <row r="48">
@@ -2252,37 +2252,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>86564.89519305828</v>
+        <v>89076.1596615552</v>
       </c>
       <c r="C48" t="n">
-        <v>944.0741303587588</v>
+        <v>730.7601201034911</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01090596977277303</v>
+        <v>0.008203767684642149</v>
       </c>
       <c r="E48" t="n">
-        <v>0.989094030227227</v>
+        <v>0.9917962323153579</v>
       </c>
       <c r="F48" t="n">
-        <v>23.85120981253063</v>
+        <v>27.9730574648841</v>
       </c>
       <c r="G48" t="n">
-        <v>14249.78132593104</v>
+        <v>14663.17025741248</v>
       </c>
       <c r="H48" t="n">
-        <v>212392.1854971799</v>
+        <v>238890.6218080292</v>
       </c>
       <c r="I48" t="n">
-        <v>2497096.703755448</v>
+        <v>3105327.575932631</v>
       </c>
       <c r="J48" t="n">
-        <v>149.4304657781052</v>
+        <v>115.6665791463138</v>
       </c>
       <c r="K48" t="n">
-        <v>6080.851114501022</v>
+        <v>5475.069418642104</v>
       </c>
       <c r="L48" t="n">
-        <v>116350.0045835086</v>
+        <v>119454.9458106201</v>
       </c>
     </row>
     <row r="49">
@@ -2290,37 +2290,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>85620.82106269953</v>
+        <v>88345.39954145171</v>
       </c>
       <c r="C49" t="n">
-        <v>1002.764889444088</v>
+        <v>774.6624612702767</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01171169438692687</v>
+        <v>0.008768565938816142</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9882883056130731</v>
+        <v>0.9912314340611839</v>
       </c>
       <c r="F49" t="n">
-        <v>23.10868542211918</v>
+        <v>27.20030432637154</v>
       </c>
       <c r="G49" t="n">
-        <v>13552.28234761712</v>
+        <v>13983.53559144261</v>
       </c>
       <c r="H49" t="n">
-        <v>198142.4041712488</v>
+        <v>224227.4515506167</v>
       </c>
       <c r="I49" t="n">
-        <v>2284704.518258268</v>
+        <v>2866436.954124602</v>
       </c>
       <c r="J49" t="n">
-        <v>152.6155664429188</v>
+        <v>117.899571049372</v>
       </c>
       <c r="K49" t="n">
-        <v>5931.420648722917</v>
+        <v>5359.40283949579</v>
       </c>
       <c r="L49" t="n">
-        <v>110269.1534690076</v>
+        <v>113979.876391978</v>
       </c>
     </row>
     <row r="50">
@@ -2328,37 +2328,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>84618.05617325543</v>
+        <v>87570.73708018144</v>
       </c>
       <c r="C50" t="n">
-        <v>1064.251135802358</v>
+        <v>820.7605758939399</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01257711632637015</v>
+        <v>0.009372543880068473</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9874228836736298</v>
+        <v>0.9906274561199315</v>
       </c>
       <c r="F50" t="n">
-        <v>22.37660927859926</v>
+        <v>26.43649879219172</v>
       </c>
       <c r="G50" t="n">
-        <v>12878.42515241969</v>
+        <v>13327.80772841467</v>
       </c>
       <c r="H50" t="n">
-        <v>184590.1218236317</v>
+        <v>210243.9159591741</v>
       </c>
       <c r="I50" t="n">
-        <v>2086562.114087019</v>
+        <v>2642209.502573985</v>
       </c>
       <c r="J50" t="n">
-        <v>155.7437031177247</v>
+        <v>120.1110218843098</v>
       </c>
       <c r="K50" t="n">
-        <v>5778.805082279998</v>
+        <v>5241.503268446419</v>
       </c>
       <c r="L50" t="n">
-        <v>104337.7328202847</v>
+        <v>108620.4735524822</v>
       </c>
     </row>
     <row r="51">
@@ -2366,37 +2366,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>83553.80503745307</v>
+        <v>86749.97650428749</v>
       </c>
       <c r="C51" t="n">
-        <v>1128.527799040504</v>
+        <v>869.0953333587398</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01350659971182211</v>
+        <v>0.01001839272332006</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9864934002881779</v>
+        <v>0.9899816072766799</v>
       </c>
       <c r="F51" t="n">
-        <v>21.65525854252947</v>
+        <v>25.68188970228954</v>
       </c>
       <c r="G51" t="n">
-        <v>12227.35740497813</v>
+        <v>12695.08871697595</v>
       </c>
       <c r="H51" t="n">
-        <v>171711.6966712121</v>
+        <v>196916.1082307594</v>
       </c>
       <c r="I51" t="n">
-        <v>1901971.992263387</v>
+        <v>2431965.586614811</v>
       </c>
       <c r="J51" t="n">
-        <v>158.7980980792534</v>
+        <v>122.2926773308215</v>
       </c>
       <c r="K51" t="n">
-        <v>5623.061379162273</v>
+        <v>5121.392246562109</v>
       </c>
       <c r="L51" t="n">
-        <v>98558.92773800468</v>
+        <v>103378.9702840358</v>
       </c>
     </row>
     <row r="52">
@@ -2404,37 +2404,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>82425.27723841257</v>
+        <v>85880.88117092875</v>
       </c>
       <c r="C52" t="n">
-        <v>1195.563689335605</v>
+        <v>919.6970409210629</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01450481853858343</v>
+        <v>0.01070898468182446</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9854951814614166</v>
+        <v>0.9892910153181755</v>
       </c>
       <c r="F52" t="n">
-        <v>20.94490630788763</v>
+        <v>24.93672480094036</v>
       </c>
       <c r="G52" t="n">
-        <v>11598.27632978434</v>
+        <v>12084.52339668451</v>
       </c>
       <c r="H52" t="n">
-        <v>159484.3392662339</v>
+        <v>184221.0195137835</v>
       </c>
       <c r="I52" t="n">
-        <v>1730260.295592175</v>
+        <v>2235049.478384051</v>
       </c>
       <c r="J52" t="n">
-        <v>161.7604745421819</v>
+        <v>124.435553790619</v>
       </c>
       <c r="K52" t="n">
-        <v>5464.263281083019</v>
+        <v>4999.099569231287</v>
       </c>
       <c r="L52" t="n">
-        <v>92935.86635884242</v>
+        <v>98257.57803747369</v>
       </c>
     </row>
     <row r="53">
@@ -2442,37 +2442,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>81229.71354907697</v>
+        <v>84961.18413000769</v>
       </c>
       <c r="C53" t="n">
-        <v>1265.29715378903</v>
+        <v>972.5833490417634</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01557677724696849</v>
+        <v>0.01144738457921579</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9844232227530315</v>
+        <v>0.9885526154207842</v>
       </c>
       <c r="F53" t="n">
-        <v>20.24582067217148</v>
+        <v>24.20125010999017</v>
       </c>
       <c r="G53" t="n">
-        <v>10990.4283040966</v>
+        <v>11495.29848148295</v>
       </c>
       <c r="H53" t="n">
-        <v>147886.0629364496</v>
+        <v>172136.496117099</v>
       </c>
       <c r="I53" t="n">
-        <v>1570775.956325941</v>
+        <v>2050828.458870268</v>
       </c>
       <c r="J53" t="n">
-        <v>164.6110130208562</v>
+        <v>126.5299063177025</v>
       </c>
       <c r="K53" t="n">
-        <v>5302.502806540837</v>
+        <v>4874.664015440669</v>
       </c>
       <c r="L53" t="n">
-        <v>87471.60307775941</v>
+        <v>93258.47846824239</v>
       </c>
     </row>
     <row r="54">
@@ -2480,37 +2480,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>79964.41639528795</v>
+        <v>83988.60078096593</v>
       </c>
       <c r="C54" t="n">
-        <v>1337.631357848981</v>
+        <v>1027.756927737309</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01672783243032339</v>
+        <v>0.01223686212391606</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9832721675696766</v>
+        <v>0.9877631378760839</v>
       </c>
       <c r="F54" t="n">
-        <v>19.55826377901818</v>
+        <v>23.47570927461616</v>
       </c>
       <c r="G54" t="n">
-        <v>10403.10851014896</v>
+        <v>10926.64171049283</v>
       </c>
       <c r="H54" t="n">
-        <v>136895.634632353</v>
+        <v>160641.1976356161</v>
       </c>
       <c r="I54" t="n">
-        <v>1422889.893389492</v>
+        <v>1878691.962753169</v>
       </c>
       <c r="J54" t="n">
-        <v>167.3283229925412</v>
+        <v>128.5652000853183</v>
       </c>
       <c r="K54" t="n">
-        <v>5137.891793519982</v>
+        <v>4748.134109122966</v>
       </c>
       <c r="L54" t="n">
-        <v>82169.10027121857</v>
+        <v>88383.81445280171</v>
       </c>
     </row>
     <row r="55">
@@ -2518,37 +2518,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>78626.78503743897</v>
+        <v>82960.84385322862</v>
       </c>
       <c r="C55" t="n">
-        <v>1412.42921323922</v>
+        <v>1085.202906468794</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0179637157053627</v>
+        <v>0.01308090487108227</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9820362842946373</v>
+        <v>0.9869190951289177</v>
       </c>
       <c r="F55" t="n">
-        <v>18.88249083783577</v>
+        <v>22.76034288343578</v>
       </c>
       <c r="G55" t="n">
-        <v>9835.66062907376</v>
+        <v>10377.82106000394</v>
       </c>
       <c r="H55" t="n">
-        <v>126492.526122204</v>
+        <v>149714.5559251232</v>
       </c>
       <c r="I55" t="n">
-        <v>1285994.258757139</v>
+        <v>1718050.765117553</v>
       </c>
       <c r="J55" t="n">
-        <v>169.8894339568365</v>
+        <v>130.5300865913708</v>
       </c>
       <c r="K55" t="n">
-        <v>4970.563470527441</v>
+        <v>4619.568909037647</v>
       </c>
       <c r="L55" t="n">
-        <v>77031.20847769859</v>
+        <v>83635.68034367877</v>
       </c>
     </row>
     <row r="56">
@@ -2556,37 +2556,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>77214.35582419975</v>
+        <v>81875.64094675983</v>
       </c>
       <c r="C56" t="n">
-        <v>1489.507991126637</v>
+        <v>1144.886074001123</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0192905577625736</v>
+        <v>0.01398323189610928</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9807094422374264</v>
+        <v>0.9860167681038907</v>
       </c>
       <c r="F56" t="n">
-        <v>18.21874912548601</v>
+        <v>22.05538776512171</v>
       </c>
       <c r="G56" t="n">
-        <v>9287.476555537163</v>
+        <v>9848.14400956626</v>
       </c>
       <c r="H56" t="n">
-        <v>116656.8654931303</v>
+        <v>139336.7348651192</v>
       </c>
       <c r="I56" t="n">
-        <v>1159501.732634935</v>
+        <v>1568336.20919243</v>
       </c>
       <c r="J56" t="n">
-        <v>172.2698105414786</v>
+        <v>132.4123859923505</v>
       </c>
       <c r="K56" t="n">
-        <v>4800.674036570604</v>
+        <v>4489.038822446278</v>
       </c>
       <c r="L56" t="n">
-        <v>72060.64500717114</v>
+        <v>79016.11143464111</v>
       </c>
     </row>
     <row r="57">
@@ -2594,37 +2594,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>75724.84783307312</v>
+        <v>80730.7548727587</v>
       </c>
       <c r="C57" t="n">
-        <v>1568.633680666736</v>
+        <v>1206.747839845526</v>
       </c>
       <c r="D57" t="n">
-        <v>0.02071491360569799</v>
+        <v>0.0149478082020601</v>
       </c>
       <c r="E57" t="n">
-        <v>0.979285086394302</v>
+        <v>0.9850521917979399</v>
       </c>
       <c r="F57" t="n">
-        <v>17.56727697559616</v>
+        <v>21.36107626402004</v>
       </c>
       <c r="G57" t="n">
-        <v>8757.996108244255</v>
+        <v>9336.956853975205</v>
       </c>
       <c r="H57" t="n">
-        <v>107369.3889375931</v>
+        <v>129488.590855553</v>
       </c>
       <c r="I57" t="n">
-        <v>1042844.867141804</v>
+        <v>1428999.47432731</v>
       </c>
       <c r="J57" t="n">
-        <v>174.4433968666528</v>
+        <v>134.1990771578191</v>
       </c>
       <c r="K57" t="n">
-        <v>4628.404226029125</v>
+        <v>4356.626436453927</v>
       </c>
       <c r="L57" t="n">
-        <v>67259.97097060054</v>
+        <v>74527.07261219484</v>
       </c>
     </row>
     <row r="58">
@@ -2632,37 +2632,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>74156.21415240638</v>
+        <v>79524.00703291317</v>
       </c>
       <c r="C58" t="n">
-        <v>1649.515179050763</v>
+        <v>1270.70296556957</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02224378897850243</v>
+        <v>0.01597885988118852</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9777562110214976</v>
+        <v>0.9840211401188115</v>
       </c>
       <c r="F58" t="n">
-        <v>16.92830276159658</v>
+        <v>20.67763549761148</v>
       </c>
       <c r="G58" t="n">
-        <v>8246.70670721436</v>
+        <v>8843.644051664493</v>
       </c>
       <c r="H58" t="n">
-        <v>98611.39282934886</v>
+        <v>120151.6340015778</v>
       </c>
       <c r="I58" t="n">
-        <v>935475.4782042113</v>
+        <v>1299510.883471758</v>
       </c>
       <c r="J58" t="n">
-        <v>176.3826959258431</v>
+        <v>135.8762972506281</v>
       </c>
       <c r="K58" t="n">
-        <v>4453.960829162473</v>
+        <v>4222.427359296107</v>
       </c>
       <c r="L58" t="n">
-        <v>62631.56674457141</v>
+        <v>70170.44617574092</v>
       </c>
     </row>
     <row r="59">
@@ -2670,37 +2670,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>72506.69897335561</v>
+        <v>78253.3040673436</v>
       </c>
       <c r="C59" t="n">
-        <v>1731.798430134753</v>
+        <v>1336.636082656613</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02388466796386834</v>
+        <v>0.01708089004786717</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9761153320361317</v>
+        <v>0.9829191099521328</v>
       </c>
       <c r="F59" t="n">
-        <v>16.30204388007246</v>
+        <v>20.00528659900052</v>
       </c>
       <c r="G59" t="n">
-        <v>7753.142984087963</v>
+        <v>8367.627598580615</v>
       </c>
       <c r="H59" t="n">
-        <v>90364.6861221345</v>
+        <v>111307.9899499133</v>
       </c>
       <c r="I59" t="n">
-        <v>836864.0853748624</v>
+        <v>1179359.249470179</v>
       </c>
       <c r="J59" t="n">
-        <v>178.0588902416696</v>
+        <v>137.4293528585137</v>
       </c>
       <c r="K59" t="n">
-        <v>4277.57813323663</v>
+        <v>4086.551062045479</v>
       </c>
       <c r="L59" t="n">
-        <v>58177.60591540895</v>
+        <v>65948.0188164448</v>
       </c>
     </row>
     <row r="60">
@@ -2708,37 +2708,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>70774.90054322087</v>
+        <v>76916.667984687</v>
       </c>
       <c r="C60" t="n">
-        <v>1815.060664914417</v>
+        <v>1404.398023960967</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02564554172430089</v>
+        <v>0.01825869555660631</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9743544582756991</v>
+        <v>0.9817413044433937</v>
       </c>
       <c r="F60" t="n">
-        <v>15.68870574147229</v>
+        <v>19.34424394795865</v>
       </c>
       <c r="G60" t="n">
-        <v>7276.886286765987</v>
+        <v>7908.366415007462</v>
       </c>
       <c r="H60" t="n">
-        <v>82611.54313804652</v>
+        <v>102940.3623513327</v>
       </c>
       <c r="I60" t="n">
-        <v>746499.3992527281</v>
+        <v>1068051.259520266</v>
       </c>
       <c r="J60" t="n">
-        <v>179.4420104713943</v>
+        <v>138.8427449247224</v>
       </c>
       <c r="K60" t="n">
-        <v>4099.51924299496</v>
+        <v>3949.121709186966</v>
       </c>
       <c r="L60" t="n">
-        <v>53900.02778217231</v>
+        <v>61861.46775439931</v>
       </c>
     </row>
     <row r="61">
@@ -2746,37 +2746,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>68959.83987830645</v>
+        <v>75512.26996072603</v>
       </c>
       <c r="C61" t="n">
-        <v>1898.804938560688</v>
+        <v>1473.802008374458</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02753493833384058</v>
+        <v>0.01951738451434426</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9724650616661594</v>
+        <v>0.9804826154856557</v>
       </c>
       <c r="F61" t="n">
-        <v>15.08848077562196</v>
+        <v>18.69471439438167</v>
       </c>
       <c r="G61" t="n">
-        <v>6817.5640344959</v>
+        <v>7465.35573104399</v>
       </c>
       <c r="H61" t="n">
-        <v>75334.65685128054</v>
+        <v>95031.99593632523</v>
       </c>
       <c r="I61" t="n">
-        <v>663887.8561146815</v>
+        <v>965110.8971689335</v>
       </c>
       <c r="J61" t="n">
-        <v>180.5011589200519</v>
+        <v>140.1002099414895</v>
       </c>
       <c r="K61" t="n">
-        <v>3920.077232523566</v>
+        <v>3810.278964262243</v>
       </c>
       <c r="L61" t="n">
-        <v>49800.50853917735</v>
+        <v>57912.34604521235</v>
       </c>
     </row>
     <row r="62">
@@ -2784,37 +2784,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>67061.03493974576</v>
+        <v>74038.46795235157</v>
       </c>
       <c r="C62" t="n">
-        <v>1982.45520517446</v>
+        <v>1544.619733309694</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02956195362859659</v>
+        <v>0.02086239459065731</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9704380463714034</v>
+        <v>0.9791376054093427</v>
       </c>
       <c r="F62" t="n">
-        <v>14.50154745984086</v>
+        <v>18.05689647834236</v>
       </c>
       <c r="G62" t="n">
-        <v>6374.848874249083</v>
+        <v>7038.126454523884</v>
       </c>
       <c r="H62" t="n">
-        <v>68517.09281678464</v>
+        <v>87566.64020528126</v>
       </c>
       <c r="I62" t="n">
-        <v>588553.1992634009</v>
+        <v>870078.9012326084</v>
       </c>
       <c r="J62" t="n">
-        <v>181.2047950094832</v>
+        <v>141.1847800704049</v>
       </c>
       <c r="K62" t="n">
-        <v>3739.576073603514</v>
+        <v>3670.178754320754</v>
       </c>
       <c r="L62" t="n">
-        <v>45880.43130665379</v>
+        <v>54102.0670809501</v>
       </c>
     </row>
     <row r="63">
@@ -2822,37 +2822,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>65078.5797345713</v>
+        <v>72493.84821904187</v>
       </c>
       <c r="C63" t="n">
-        <v>2065.3522221443</v>
+        <v>1616.577447190317</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03173628297618081</v>
+        <v>0.02229951212281889</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9682637170238192</v>
+        <v>0.9777004878771811</v>
       </c>
       <c r="F63" t="n">
-        <v>13.92806937773566</v>
+        <v>17.43097965122322</v>
       </c>
       <c r="G63" t="n">
-        <v>5948.457584076173</v>
+        <v>6626.244503125637</v>
       </c>
       <c r="H63" t="n">
-        <v>62142.24394253557</v>
+        <v>80528.5137507574</v>
       </c>
       <c r="I63" t="n">
-        <v>520036.1064466163</v>
+        <v>782512.261027327</v>
       </c>
       <c r="J63" t="n">
-        <v>181.5210895769714</v>
+        <v>142.078865025204</v>
       </c>
       <c r="K63" t="n">
-        <v>3558.371278594031</v>
+        <v>3528.993974250348</v>
       </c>
       <c r="L63" t="n">
-        <v>42140.85523305027</v>
+        <v>50431.88832662934</v>
       </c>
     </row>
     <row r="64">
@@ -2860,37 +2860,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>63013.227512427</v>
+        <v>70877.27077185156</v>
       </c>
       <c r="C64" t="n">
-        <v>2146.750629705523</v>
+        <v>1689.352094425835</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03406825383261247</v>
+        <v>0.02383489200457123</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9659317461673875</v>
+        <v>0.9761651079954288</v>
       </c>
       <c r="F64" t="n">
-        <v>13.36819431694695</v>
+        <v>16.81714350269414</v>
       </c>
       <c r="G64" t="n">
-        <v>5538.149664342425</v>
+        <v>6229.310080287909</v>
       </c>
       <c r="H64" t="n">
-        <v>56193.78635845939</v>
+        <v>73902.26924763175</v>
       </c>
       <c r="I64" t="n">
-        <v>457893.8625040808</v>
+        <v>701983.7472765697</v>
       </c>
       <c r="J64" t="n">
-        <v>181.4183543536685</v>
+        <v>142.7643586794704</v>
       </c>
       <c r="K64" t="n">
-        <v>3376.850189017059</v>
+        <v>3386.915109225145</v>
       </c>
       <c r="L64" t="n">
-        <v>38582.48395445625</v>
+        <v>46902.894352379</v>
       </c>
     </row>
     <row r="65">
@@ -2898,37 +2898,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>60866.47688272148</v>
+        <v>69187.91867742573</v>
       </c>
       <c r="C65" t="n">
-        <v>2225.817605968951</v>
+        <v>1762.567648339148</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03656885891814787</v>
+        <v>0.02547507833783458</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9634311410818521</v>
+        <v>0.9745249216621654</v>
       </c>
       <c r="F65" t="n">
-        <v>12.82205341423472</v>
+        <v>16.21555699855086</v>
       </c>
       <c r="G65" t="n">
-        <v>5143.725553667894</v>
+        <v>5846.956872366595</v>
       </c>
       <c r="H65" t="n">
-        <v>50655.63669411696</v>
+        <v>67672.95916734383</v>
       </c>
       <c r="I65" t="n">
-        <v>401700.0761456214</v>
+        <v>628081.4780289379</v>
       </c>
       <c r="J65" t="n">
-        <v>180.865552005532</v>
+        <v>143.2227734244993</v>
       </c>
       <c r="K65" t="n">
-        <v>3195.431834663391</v>
+        <v>3244.150750545674</v>
       </c>
       <c r="L65" t="n">
-        <v>35205.63376543918</v>
+        <v>43515.97924315385</v>
       </c>
     </row>
     <row r="66">
@@ -2936,37 +2936,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>58640.65927675253</v>
+        <v>67425.35102908658</v>
       </c>
       <c r="C66" t="n">
-        <v>2301.633550360719</v>
+        <v>1835.79177306685</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03924978980025173</v>
+        <v>0.02722702581518499</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9607502101997483</v>
+        <v>0.972772974184815</v>
       </c>
       <c r="F66" t="n">
-        <v>12.28976035630122</v>
+        <v>15.62637773464651</v>
       </c>
       <c r="G66" t="n">
-        <v>4765.024403444365</v>
+        <v>5478.851142312611</v>
       </c>
       <c r="H66" t="n">
-        <v>45511.91114044907</v>
+        <v>61826.00229497722</v>
       </c>
       <c r="I66" t="n">
-        <v>351044.4394515044</v>
+        <v>560408.5188615941</v>
       </c>
       <c r="J66" t="n">
-        <v>179.8328906040973</v>
+        <v>143.4354052781742</v>
       </c>
       <c r="K66" t="n">
-        <v>3014.566282657859</v>
+        <v>3100.927977121175</v>
       </c>
       <c r="L66" t="n">
-        <v>32010.20193077579</v>
+        <v>40271.82849260818</v>
       </c>
     </row>
     <row r="67">
@@ -2974,37 +2974,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>56339.02572639181</v>
+        <v>65589.55925601973</v>
       </c>
       <c r="C67" t="n">
-        <v>2373.195295045887</v>
+        <v>1908.532983219923</v>
       </c>
       <c r="D67" t="n">
-        <v>0.04212347062178912</v>
+        <v>0.02909812178749716</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9578765293782109</v>
+        <v>0.9709018782125028</v>
       </c>
       <c r="F67" t="n">
-        <v>11.77141064465656</v>
+        <v>15.04975121232416</v>
       </c>
       <c r="G67" t="n">
-        <v>4401.921343477023</v>
+        <v>5124.690693099335</v>
       </c>
       <c r="H67" t="n">
-        <v>40746.88673700471</v>
+        <v>56347.15115266461</v>
       </c>
       <c r="I67" t="n">
-        <v>305532.5283110553</v>
+        <v>498582.5165666169</v>
       </c>
       <c r="J67" t="n">
-        <v>178.2925042224816</v>
+        <v>143.3835326067862</v>
       </c>
       <c r="K67" t="n">
-        <v>2834.733392053762</v>
+        <v>2957.492571843001</v>
       </c>
       <c r="L67" t="n">
-        <v>28995.63564811793</v>
+        <v>37170.900515487</v>
       </c>
     </row>
     <row r="68">
@@ -3012,37 +3012,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>53965.83043134592</v>
+        <v>63681.02627279981</v>
       </c>
       <c r="C68" t="n">
-        <v>2439.42237920786</v>
+        <v>1980.238499475583</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04520309165465797</v>
+        <v>0.03109620895543586</v>
       </c>
       <c r="E68" t="n">
-        <v>0.954796908345342</v>
+        <v>0.9689037910445641</v>
       </c>
       <c r="F68" t="n">
-        <v>11.26708093262626</v>
+        <v>14.48581014088803</v>
       </c>
       <c r="G68" t="n">
-        <v>4054.324172197732</v>
+        <v>4784.203672296421</v>
       </c>
       <c r="H68" t="n">
-        <v>36344.96539352768</v>
+        <v>51222.46045956528</v>
       </c>
       <c r="I68" t="n">
-        <v>264785.6415740506</v>
+        <v>442235.3654139523</v>
       </c>
       <c r="J68" t="n">
-        <v>176.2192184168744</v>
+        <v>143.0486510375895</v>
       </c>
       <c r="K68" t="n">
-        <v>2656.44088783128</v>
+        <v>2814.109039236215</v>
       </c>
       <c r="L68" t="n">
-        <v>26160.90225606418</v>
+        <v>34213.40794364401</v>
       </c>
     </row>
     <row r="69">
@@ -3050,37 +3050,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>51526.40805213806</v>
+        <v>61700.78777332422</v>
       </c>
       <c r="C69" t="n">
-        <v>2499.166938374758</v>
+        <v>2050.293028337866</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04850264229258761</v>
+        <v>0.03322960860516422</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9514973577074124</v>
+        <v>0.9667703913948358</v>
       </c>
       <c r="F69" t="n">
-        <v>10.77682844227633</v>
+        <v>13.93467377272834</v>
       </c>
       <c r="G69" t="n">
-        <v>3722.169408696329</v>
+        <v>4457.147187708968</v>
       </c>
       <c r="H69" t="n">
-        <v>32290.64122132995</v>
+        <v>46438.25678726885</v>
       </c>
       <c r="I69" t="n">
-        <v>228440.6761805229</v>
+        <v>391012.904954387</v>
       </c>
       <c r="J69" t="n">
-        <v>173.59139556001</v>
+        <v>142.4127466761321</v>
       </c>
       <c r="K69" t="n">
-        <v>2480.221669414405</v>
+        <v>2671.060388198625</v>
       </c>
       <c r="L69" t="n">
-        <v>23504.46136823289</v>
+        <v>31399.29890440779</v>
       </c>
     </row>
     <row r="70">
@@ -3088,37 +3088,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>49027.2411137633</v>
+        <v>59650.49474498635</v>
       </c>
       <c r="C70" t="n">
-        <v>2551.227752302508</v>
+        <v>2118.018723725343</v>
       </c>
       <c r="D70" t="n">
-        <v>0.05203694302077111</v>
+        <v>0.03550714428740531</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9479630569792289</v>
+        <v>0.9644928557125947</v>
       </c>
       <c r="F70" t="n">
-        <v>10.30069046858717</v>
+        <v>13.3964472767366</v>
       </c>
       <c r="G70" t="n">
-        <v>3405.417651263384</v>
+        <v>4143.30570304403</v>
       </c>
       <c r="H70" t="n">
-        <v>28568.47181263362</v>
+        <v>41981.10959955989</v>
       </c>
       <c r="I70" t="n">
-        <v>196150.034959193</v>
+        <v>344574.6481671182</v>
       </c>
       <c r="J70" t="n">
-        <v>170.3918502699239</v>
+        <v>141.4586090623208</v>
       </c>
       <c r="K70" t="n">
-        <v>2306.630273854395</v>
+        <v>2528.647641522492</v>
       </c>
       <c r="L70" t="n">
-        <v>21024.23969881849</v>
+        <v>28728.23851620917</v>
       </c>
     </row>
     <row r="71">
@@ -3126,37 +3126,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>46476.0133614608</v>
+        <v>57532.47602126101</v>
       </c>
       <c r="C71" t="n">
-        <v>2594.368950962243</v>
+        <v>2182.676615012045</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05582167581338993</v>
+        <v>0.0379381658144774</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9441783241866101</v>
+        <v>0.9620618341855226</v>
       </c>
       <c r="F71" t="n">
-        <v>9.838683977641454</v>
+        <v>12.87122115560757</v>
       </c>
       <c r="G71" t="n">
-        <v>3104.04819902179</v>
+        <v>3842.489182326168</v>
       </c>
       <c r="H71" t="n">
-        <v>25163.05416137024</v>
+        <v>37837.80389651586</v>
       </c>
       <c r="I71" t="n">
-        <v>167581.5631465593</v>
+        <v>302593.5385675582</v>
       </c>
       <c r="J71" t="n">
-        <v>166.6088194951262</v>
+        <v>140.1701843648326</v>
       </c>
       <c r="K71" t="n">
-        <v>2136.238423584472</v>
+        <v>2387.189032460172</v>
       </c>
       <c r="L71" t="n">
-        <v>18717.60942496409</v>
+        <v>26199.59087468667</v>
       </c>
     </row>
     <row r="72">
@@ -3164,37 +3164,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>43881.64441049856</v>
+        <v>55349.79940624897</v>
       </c>
       <c r="C72" t="n">
-        <v>2627.343788714626</v>
+        <v>2243.469808311924</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05987341231191512</v>
+        <v>0.040532573421732</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9401265876880849</v>
+        <v>0.959467426578268</v>
       </c>
       <c r="F72" t="n">
-        <v>9.39080530490523</v>
+        <v>12.35907071251921</v>
       </c>
       <c r="G72" t="n">
-        <v>2818.052910333519</v>
+        <v>3554.530952487253</v>
       </c>
       <c r="H72" t="n">
-        <v>22059.00596234844</v>
+        <v>33995.31471418969</v>
       </c>
       <c r="I72" t="n">
-        <v>142418.5089851891</v>
+        <v>264755.7346710424</v>
       </c>
       <c r="J72" t="n">
-        <v>162.2369652088376</v>
+        <v>138.5329680879889</v>
       </c>
       <c r="K72" t="n">
-        <v>1969.629604089346</v>
+        <v>2247.018848095339</v>
       </c>
       <c r="L72" t="n">
-        <v>16581.37100137962</v>
+        <v>23812.4018422265</v>
       </c>
     </row>
     <row r="73">
@@ -3202,37 +3202,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>41254.30062178393</v>
+        <v>53106.32959793705</v>
       </c>
       <c r="C73" t="n">
-        <v>2648.923751209511</v>
+        <v>2299.54878221064</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06420963902635579</v>
+        <v>0.04330084190755235</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9357903609736442</v>
+        <v>0.9566991580924477</v>
       </c>
       <c r="F73" t="n">
-        <v>8.957029958879351</v>
+        <v>11.8600555725086</v>
       </c>
       <c r="G73" t="n">
-        <v>2547.429294727237</v>
+        <v>3279.285255457446</v>
       </c>
       <c r="H73" t="n">
-        <v>19240.95305201493</v>
+        <v>30440.78376170243</v>
       </c>
       <c r="I73" t="n">
-        <v>120359.5030228407</v>
+        <v>230760.4199568527</v>
       </c>
       <c r="J73" t="n">
-        <v>157.2783802496154</v>
+        <v>136.5344350157021</v>
       </c>
       <c r="K73" t="n">
-        <v>1807.392638880508</v>
+        <v>2108.48588000735</v>
       </c>
       <c r="L73" t="n">
-        <v>14611.74139729028</v>
+        <v>21565.38299413116</v>
       </c>
     </row>
     <row r="74">
@@ -3240,37 +3240,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>38605.37687057442</v>
+        <v>50806.78081572641</v>
       </c>
       <c r="C74" t="n">
-        <v>2657.933047918729</v>
+        <v>2350.019102237742</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06884877867737238</v>
+        <v>0.04625404452923598</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9311512213226276</v>
+        <v>0.953745955470764</v>
       </c>
       <c r="F74" t="n">
-        <v>8.537312534487128</v>
+        <v>11.37421926361814</v>
       </c>
       <c r="G74" t="n">
-        <v>2292.17286468042</v>
+        <v>3016.624464462611</v>
       </c>
       <c r="H74" t="n">
-        <v>16693.52375728769</v>
+        <v>27161.49850624499</v>
       </c>
       <c r="I74" t="n">
-        <v>101118.5499708257</v>
+        <v>200319.6361951503</v>
       </c>
       <c r="J74" t="n">
-        <v>151.7435598564047</v>
+        <v>134.1645022184964</v>
       </c>
       <c r="K74" t="n">
-        <v>1650.114258630892</v>
+        <v>1971.951444991648</v>
       </c>
       <c r="L74" t="n">
-        <v>12804.34875840977</v>
+        <v>19456.89711412381</v>
       </c>
     </row>
     <row r="75">
@@ -3278,37 +3278,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>35947.44382265569</v>
+        <v>48456.76171348867</v>
       </c>
       <c r="C75" t="n">
-        <v>2653.288257396984</v>
+        <v>2393.951865965413</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0738102066585542</v>
+        <v>0.04940387639025867</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9261897933414458</v>
+        <v>0.9505961236097413</v>
       </c>
       <c r="F75" t="n">
-        <v>8.131586739553166</v>
+        <v>10.90158886257156</v>
       </c>
       <c r="G75" t="n">
-        <v>2052.268810028615</v>
+        <v>2766.435944380168</v>
       </c>
       <c r="H75" t="n">
-        <v>14401.35089260727</v>
+        <v>24144.87404178238</v>
       </c>
       <c r="I75" t="n">
-        <v>84425.02621353805</v>
+        <v>173158.1376889053</v>
       </c>
       <c r="J75" t="n">
-        <v>145.6522932568434</v>
+        <v>131.4160186901215</v>
       </c>
       <c r="K75" t="n">
-        <v>1498.370698774488</v>
+        <v>1837.786942773152</v>
       </c>
       <c r="L75" t="n">
-        <v>11154.23449977888</v>
+        <v>17484.94566913216</v>
       </c>
     </row>
     <row r="76">
@@ -3316,37 +3316,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>33294.1555652587</v>
+        <v>46062.80984752325</v>
       </c>
       <c r="C76" t="n">
-        <v>2634.042527960034</v>
+        <v>2430.397158022382</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07911426144438893</v>
+        <v>0.05276267700705761</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9208857385556111</v>
+        <v>0.9472373229929424</v>
       </c>
       <c r="F76" t="n">
-        <v>7.739765536629853</v>
+        <v>10.44217470935306</v>
       </c>
       <c r="G76" t="n">
-        <v>1827.68310100144</v>
+        <v>2528.618543213886</v>
       </c>
       <c r="H76" t="n">
-        <v>12349.08208257865</v>
+        <v>21378.43809740221</v>
       </c>
       <c r="I76" t="n">
-        <v>70023.67532093078</v>
+        <v>149013.2636471229</v>
       </c>
       <c r="J76" t="n">
-        <v>139.0344218174225</v>
+        <v>128.2852725669719</v>
       </c>
       <c r="K76" t="n">
-        <v>1352.718405517644</v>
+        <v>1706.37092408303</v>
       </c>
       <c r="L76" t="n">
-        <v>9655.863801004389</v>
+        <v>15647.15872635901</v>
       </c>
     </row>
     <row r="77">
@@ -3354,37 +3354,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>30660.11303729867</v>
+        <v>43632.41268950087</v>
       </c>
       <c r="C77" t="n">
-        <v>2599.433294974037</v>
+        <v>2458.400736493284</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08478224760005848</v>
+        <v>0.05634345169009736</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9152177523999415</v>
+        <v>0.9436565483099026</v>
       </c>
       <c r="F77" t="n">
-        <v>7.361741401257083</v>
+        <v>9.995970194606798</v>
       </c>
       <c r="G77" t="n">
-        <v>1618.353175299346</v>
+        <v>2303.078711292534</v>
       </c>
       <c r="H77" t="n">
-        <v>10521.39898157721</v>
+        <v>18849.81955418833</v>
       </c>
       <c r="I77" t="n">
-        <v>57674.59323835212</v>
+        <v>127634.8255497207</v>
       </c>
       <c r="J77" t="n">
-        <v>131.930403473625</v>
+        <v>124.7725039501948</v>
       </c>
       <c r="K77" t="n">
-        <v>1213.683983700222</v>
+        <v>1578.085651516059</v>
       </c>
       <c r="L77" t="n">
-        <v>8303.145395486743</v>
+        <v>13940.78780227598</v>
       </c>
     </row>
     <row r="78">
@@ -3392,37 +3392,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>28060.67974232463</v>
+        <v>41174.01195300759</v>
       </c>
       <c r="C78" t="n">
-        <v>2548.931967348487</v>
+        <v>2477.024084056962</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09083642986395191</v>
+        <v>0.06015989131406529</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9091635701360481</v>
+        <v>0.9398401086859347</v>
       </c>
       <c r="F78" t="n">
-        <v>6.997386696514347</v>
+        <v>9.562951623251241</v>
       </c>
       <c r="G78" t="n">
-        <v>1424.178418929592</v>
+        <v>2089.726256908011</v>
       </c>
       <c r="H78" t="n">
-        <v>8903.045806277867</v>
+        <v>16546.74084289579</v>
       </c>
       <c r="I78" t="n">
-        <v>47153.19425677492</v>
+        <v>108785.0059955324</v>
       </c>
       <c r="J78" t="n">
-        <v>124.3916183315883</v>
+        <v>120.8824081651292</v>
       </c>
       <c r="K78" t="n">
-        <v>1081.753580226597</v>
+        <v>1453.313147565864</v>
       </c>
       <c r="L78" t="n">
-        <v>7089.461411786522</v>
+        <v>12362.70215075992</v>
       </c>
     </row>
     <row r="79">
@@ -3430,37 +3430,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>25511.74777497615</v>
+        <v>38696.98786895063</v>
       </c>
       <c r="C79" t="n">
-        <v>2482.293481309826</v>
+        <v>2485.367834118656</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0973000165729393</v>
+        <v>0.06422638998506769</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9026999834270607</v>
+        <v>0.9357736100149323</v>
       </c>
       <c r="F79" t="n">
-        <v>6.646554162461735</v>
+        <v>9.143078157116401</v>
       </c>
       <c r="G79" t="n">
-        <v>1245.01070756225</v>
+        <v>1888.469761938727</v>
       </c>
       <c r="H79" t="n">
-        <v>7478.867387348276</v>
+        <v>14457.01458598778</v>
       </c>
       <c r="I79" t="n">
-        <v>38250.14845049704</v>
+        <v>92238.26515263664</v>
       </c>
       <c r="J79" t="n">
-        <v>116.4803485377825</v>
+        <v>116.6246109666198</v>
       </c>
       <c r="K79" t="n">
-        <v>957.3619618950086</v>
+        <v>1332.430739400734</v>
       </c>
       <c r="L79" t="n">
-        <v>6007.707831559925</v>
+        <v>10909.38900319406</v>
       </c>
     </row>
     <row r="80">
@@ -3468,37 +3468,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23029.45429366632</v>
+        <v>36211.62003483198</v>
       </c>
       <c r="C80" t="n">
-        <v>2399.60305403108</v>
+        <v>2482.598420428355</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1041971304848084</v>
+        <v>0.06855806003819609</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8958028695151916</v>
+        <v>0.9314419399618039</v>
       </c>
       <c r="F80" t="n">
-        <v>6.309077517789036</v>
+        <v>8.736291838769079</v>
       </c>
       <c r="G80" t="n">
-        <v>1080.645331810535</v>
+        <v>1699.211698589848</v>
       </c>
       <c r="H80" t="n">
-        <v>6233.856679786025</v>
+        <v>12568.54482404906</v>
       </c>
       <c r="I80" t="n">
-        <v>30771.28106314877</v>
+        <v>77781.25056664886</v>
       </c>
       <c r="J80" t="n">
-        <v>108.2693679292898</v>
+        <v>112.0140938937769</v>
       </c>
       <c r="K80" t="n">
-        <v>840.8816133572259</v>
+        <v>1215.806128434114</v>
       </c>
       <c r="L80" t="n">
-        <v>5050.345869664916</v>
+        <v>9576.958263793325</v>
       </c>
     </row>
     <row r="81">
@@ -3506,37 +3506,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20629.85123963524</v>
+        <v>33729.02161440362</v>
       </c>
       <c r="C81" t="n">
-        <v>2301.316943676923</v>
+        <v>2467.97759635038</v>
       </c>
       <c r="D81" t="n">
-        <v>0.111552764823408</v>
+        <v>0.0731707437163388</v>
       </c>
       <c r="E81" t="n">
-        <v>0.888447235176592</v>
+        <v>0.9268292562836612</v>
       </c>
       <c r="F81" t="n">
-        <v>5.984772169721794</v>
+        <v>8.342517697997177</v>
       </c>
       <c r="G81" t="n">
-        <v>930.8126818885323</v>
+        <v>1521.843308596462</v>
       </c>
       <c r="H81" t="n">
-        <v>5153.21134797549</v>
+        <v>10869.33312545921</v>
       </c>
       <c r="I81" t="n">
-        <v>24537.42438336274</v>
+        <v>65212.70574259978</v>
       </c>
       <c r="J81" t="n">
-        <v>99.84108480515111</v>
+        <v>107.0715449132085</v>
       </c>
       <c r="K81" t="n">
-        <v>732.6122454279362</v>
+        <v>1103.792034540337</v>
       </c>
       <c r="L81" t="n">
-        <v>4209.46425630769</v>
+        <v>8361.152135359211</v>
       </c>
     </row>
     <row r="82">
@@ -3544,37 +3544,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>18328.53429595831</v>
+        <v>31261.04401805325</v>
       </c>
       <c r="C82" t="n">
-        <v>2188.293602293479</v>
+        <v>2440.894227899693</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1193927221325072</v>
+        <v>0.078081020790287</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8806072778674928</v>
+        <v>0.921918979209713</v>
       </c>
       <c r="F82" t="n">
-        <v>5.673436026993337</v>
+        <v>7.961663941688232</v>
       </c>
       <c r="G82" t="n">
-        <v>795.1711093184375</v>
+        <v>1356.239328737236</v>
       </c>
       <c r="H82" t="n">
-        <v>4222.398666086958</v>
+        <v>9347.489816862744</v>
       </c>
       <c r="I82" t="n">
-        <v>19384.21303538726</v>
+        <v>54343.37261714058</v>
       </c>
       <c r="J82" t="n">
-        <v>91.28619548332085</v>
+        <v>101.8236069459009</v>
       </c>
       <c r="K82" t="n">
-        <v>632.771160622785</v>
+        <v>996.7204896271295</v>
       </c>
       <c r="L82" t="n">
-        <v>3476.852010879754</v>
+        <v>7257.360100818873</v>
       </c>
     </row>
     <row r="83">
@@ -3582,37 +3582,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16140.24069366483</v>
+        <v>28820.14979015355</v>
       </c>
       <c r="C83" t="n">
-        <v>2061.811374165065</v>
+        <v>2400.897487561395</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1277435332779356</v>
+        <v>0.08330621128075</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8722564667220644</v>
+        <v>0.91669378871925</v>
       </c>
       <c r="F83" t="n">
-        <v>5.374850409505471</v>
+        <v>7.593622227068713</v>
       </c>
       <c r="G83" t="n">
-        <v>673.3014096305612</v>
+        <v>1202.252670686056</v>
       </c>
       <c r="H83" t="n">
-        <v>3427.22755676852</v>
+        <v>7991.25048812551</v>
       </c>
       <c r="I83" t="n">
-        <v>15161.8143693003</v>
+        <v>44995.88280027784</v>
       </c>
       <c r="J83" t="n">
-        <v>82.70182791079094</v>
+        <v>96.30299518944092</v>
       </c>
       <c r="K83" t="n">
-        <v>541.4849651394642</v>
+        <v>894.8968826812285</v>
       </c>
       <c r="L83" t="n">
-        <v>2844.080850256969</v>
+        <v>6260.639611191744</v>
       </c>
     </row>
     <row r="84">
@@ -3620,37 +3620,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14078.42931949977</v>
+        <v>26419.25230259216</v>
       </c>
       <c r="C84" t="n">
-        <v>1923.568934174754</v>
+        <v>2347.730273423365</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1366323536895167</v>
+        <v>0.0888643723347543</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8633676463104833</v>
+        <v>0.9111356276652457</v>
       </c>
       <c r="F84" t="n">
-        <v>5.088781047190323</v>
+        <v>7.238268017479969</v>
       </c>
       <c r="G84" t="n">
-        <v>564.7033736570564</v>
+        <v>1059.709188162536</v>
       </c>
       <c r="H84" t="n">
-        <v>2753.926147137959</v>
+        <v>6788.997817439454</v>
       </c>
       <c r="I84" t="n">
-        <v>11734.58681253178</v>
+        <v>37004.63231215232</v>
       </c>
       <c r="J84" t="n">
-        <v>74.1891837299752</v>
+        <v>90.54845371484214</v>
       </c>
       <c r="K84" t="n">
-        <v>458.7831372286732</v>
+        <v>798.5938874917877</v>
       </c>
       <c r="L84" t="n">
-        <v>2302.595885117505</v>
+        <v>5365.742728510516</v>
       </c>
     </row>
     <row r="85">
@@ -3658,37 +3658,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12154.86038532502</v>
+        <v>24071.5220291688</v>
       </c>
       <c r="C85" t="n">
-        <v>1775.665067657601</v>
+        <v>2281.361366016253</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1460868336917652</v>
+        <v>0.09477428819215505</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8539131663082348</v>
+        <v>0.9052257118078449</v>
       </c>
       <c r="F85" t="n">
-        <v>4.814979159573591</v>
+        <v>6.895461019065356</v>
       </c>
       <c r="G85" t="n">
-        <v>468.7948294018098</v>
+        <v>928.402688749135</v>
       </c>
       <c r="H85" t="n">
-        <v>2189.222773480902</v>
+        <v>5729.288629276918</v>
       </c>
       <c r="I85" t="n">
-        <v>8980.660665393822</v>
+        <v>30215.63449471287</v>
       </c>
       <c r="J85" t="n">
-        <v>65.85072334459772</v>
+        <v>84.60452305950206</v>
       </c>
       <c r="K85" t="n">
-        <v>384.5939534986981</v>
+        <v>708.0454337769455</v>
       </c>
       <c r="L85" t="n">
-        <v>1843.812747888831</v>
+        <v>4567.148841018728</v>
       </c>
     </row>
     <row r="86">
@@ -3696,37 +3696,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10379.19531766742</v>
+        <v>21790.16066315255</v>
       </c>
       <c r="C86" t="n">
-        <v>1620.555241030652</v>
+        <v>2202.014536122532</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1561349595447107</v>
+        <v>0.101055452053007</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8438650404552893</v>
+        <v>0.898944547946993</v>
       </c>
       <c r="F86" t="n">
-        <v>4.553182606644601</v>
+        <v>6.565045695943444</v>
       </c>
       <c r="G86" t="n">
-        <v>384.9135356956039</v>
+        <v>808.0903699685123</v>
       </c>
       <c r="H86" t="n">
-        <v>1720.427944079092</v>
+        <v>4800.885940527783</v>
       </c>
       <c r="I86" t="n">
-        <v>6791.437891912921</v>
+        <v>24486.34586543596</v>
       </c>
       <c r="J86" t="n">
-        <v>57.78698011927372</v>
+        <v>78.52109388158625</v>
       </c>
       <c r="K86" t="n">
-        <v>318.7432301541003</v>
+        <v>623.4409107174433</v>
       </c>
       <c r="L86" t="n">
-        <v>1459.218794390134</v>
+        <v>3859.103407241782</v>
       </c>
     </row>
     <row r="87">
@@ -3734,37 +3734,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8758.640076636764</v>
+        <v>19588.14612703001</v>
       </c>
       <c r="C87" t="n">
-        <v>1460.983745923804</v>
+        <v>2110.192560587464</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1668048616155499</v>
+        <v>0.1077280385240528</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8331951383844501</v>
+        <v>0.8922719614759472</v>
       </c>
       <c r="F87" t="n">
-        <v>4.303117100878824</v>
+        <v>6.246851860656784</v>
       </c>
       <c r="G87" t="n">
-        <v>312.322188818807</v>
+        <v>698.4888772419832</v>
       </c>
       <c r="H87" t="n">
-        <v>1335.514408383488</v>
+        <v>3992.79557055927</v>
       </c>
       <c r="I87" t="n">
-        <v>5071.009947833829</v>
+        <v>19685.45992490817</v>
       </c>
       <c r="J87" t="n">
-        <v>50.09313412056417</v>
+        <v>72.352727573218</v>
       </c>
       <c r="K87" t="n">
-        <v>260.9562500348266</v>
+        <v>544.9198168358572</v>
       </c>
       <c r="L87" t="n">
-        <v>1140.475564236033</v>
+        <v>3235.66249652434</v>
       </c>
     </row>
     <row r="88">
@@ -3772,37 +3772,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7297.65633071296</v>
+        <v>17477.95356644255</v>
       </c>
       <c r="C88" t="n">
-        <v>1299.892012264842</v>
+        <v>2006.693926511497</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1781245859433129</v>
+        <v>0.114812865183732</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8218754140566871</v>
+        <v>0.885187134816268</v>
       </c>
       <c r="F88" t="n">
-        <v>4.064497469647982</v>
+        <v>5.940695335927241</v>
       </c>
       <c r="G88" t="n">
-        <v>250.2166628205964</v>
+        <v>599.2711928517658</v>
       </c>
       <c r="H88" t="n">
-        <v>1023.192219564682</v>
+        <v>3294.306693317287</v>
       </c>
       <c r="I88" t="n">
-        <v>3735.49553945034</v>
+        <v>15692.6643543489</v>
       </c>
       <c r="J88" t="n">
-        <v>42.85551871253487</v>
+        <v>66.15773333979234</v>
       </c>
       <c r="K88" t="n">
-        <v>210.8631159142624</v>
+        <v>472.5670892626389</v>
       </c>
       <c r="L88" t="n">
-        <v>879.5193142012067</v>
+        <v>2690.742679688482</v>
       </c>
     </row>
     <row r="89">
@@ -3810,37 +3810,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5997.764318448118</v>
+        <v>15471.25963993105</v>
       </c>
       <c r="C89" t="n">
-        <v>1140.305900309057</v>
+        <v>1892.619948948317</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1901218253611046</v>
+        <v>0.1223313416616381</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8098781746388954</v>
+        <v>0.8776686583383619</v>
       </c>
       <c r="F89" t="n">
-        <v>3.837028956802605</v>
+        <v>5.646378683030145</v>
       </c>
       <c r="G89" t="n">
-        <v>197.7374263072693</v>
+        <v>510.0645674792132</v>
       </c>
       <c r="H89" t="n">
-        <v>772.9755567440852</v>
+        <v>2695.035500465521</v>
       </c>
       <c r="I89" t="n">
-        <v>2712.303319885658</v>
+        <v>12398.35766103162</v>
       </c>
       <c r="J89" t="n">
-        <v>36.1482696459086</v>
+        <v>59.99700276326468</v>
       </c>
       <c r="K89" t="n">
-        <v>168.0075972017275</v>
+        <v>406.4093559228467</v>
       </c>
       <c r="L89" t="n">
-        <v>668.6561982869443</v>
+        <v>2218.175590425843</v>
       </c>
     </row>
     <row r="90">
@@ -3848,37 +3848,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4857.45841813906</v>
+        <v>13578.63969098274</v>
       </c>
       <c r="C90" t="n">
-        <v>985.2072339483085</v>
+        <v>1769.37013725709</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2028236063265676</v>
+        <v>0.1303054044826072</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7971763936734324</v>
+        <v>0.8696945955173928</v>
       </c>
       <c r="F90" t="n">
-        <v>3.620408551928819</v>
+        <v>5.363691991432712</v>
       </c>
       <c r="G90" t="n">
-        <v>153.9838710341581</v>
+        <v>430.4496967359788</v>
       </c>
       <c r="H90" t="n">
-        <v>575.2381304368159</v>
+        <v>2184.970932986308</v>
       </c>
       <c r="I90" t="n">
-        <v>1939.327763141573</v>
+        <v>9703.322160566093</v>
       </c>
       <c r="J90" t="n">
-        <v>30.03035003776252</v>
+        <v>53.93261715634356</v>
       </c>
       <c r="K90" t="n">
-        <v>131.8593275558189</v>
+        <v>346.412353159582</v>
       </c>
       <c r="L90" t="n">
-        <v>500.6486010852169</v>
+        <v>1811.766234502996</v>
       </c>
     </row>
     <row r="91">
@@ -3886,37 +3886,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3872.251184190752</v>
+        <v>11809.26955372565</v>
       </c>
       <c r="C91" t="n">
-        <v>837.3972721569245</v>
+        <v>1638.623961719865</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2162559277083491</v>
+        <v>0.1387574357808526</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7837440722916509</v>
+        <v>0.8612425642191474</v>
       </c>
       <c r="F91" t="n">
-        <v>3.414326335668077</v>
+        <v>5.092413723738551</v>
       </c>
       <c r="G91" t="n">
-        <v>118.0310644181587</v>
+        <v>359.9613220128667</v>
       </c>
       <c r="H91" t="n">
-        <v>421.2542594026579</v>
+        <v>1754.521236250329</v>
       </c>
       <c r="I91" t="n">
-        <v>1364.089632704757</v>
+        <v>7518.351227579785</v>
       </c>
       <c r="J91" t="n">
-        <v>24.54318974437771</v>
+        <v>48.02625963729919</v>
       </c>
       <c r="K91" t="n">
-        <v>101.8289775180564</v>
+        <v>292.4797360032385</v>
       </c>
       <c r="L91" t="n">
-        <v>368.7892735293979</v>
+        <v>1465.353881343414</v>
       </c>
     </row>
     <row r="92">
@@ -3924,37 +3924,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3034.853912033827</v>
+        <v>10170.64559200578</v>
       </c>
       <c r="C92" t="n">
-        <v>699.3618962305118</v>
+        <v>1502.30772685477</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2304433480166529</v>
+        <v>0.1477101638499327</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7695566519833471</v>
+        <v>0.8522898361500673</v>
       </c>
       <c r="F92" t="n">
-        <v>3.218466829543793</v>
+        <v>4.832311609450354</v>
       </c>
       <c r="G92" t="n">
-        <v>88.94821835000562</v>
+        <v>298.0903961443034</v>
       </c>
       <c r="H92" t="n">
-        <v>303.2231949844992</v>
+        <v>1394.559914237463</v>
       </c>
       <c r="I92" t="n">
-        <v>942.8353733020995</v>
+        <v>5763.829991329456</v>
       </c>
       <c r="J92" t="n">
-        <v>19.70915888143421</v>
+        <v>42.3374819774677</v>
       </c>
       <c r="K92" t="n">
-        <v>77.28578777367871</v>
+        <v>244.4534763659393</v>
       </c>
       <c r="L92" t="n">
-        <v>266.9602960113415</v>
+        <v>1172.874145340175</v>
       </c>
     </row>
     <row r="93">
@@ -3962,37 +3962,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2335.492015803316</v>
+        <v>8668.337865151012</v>
       </c>
       <c r="C93" t="n">
-        <v>573.149634367979</v>
+        <v>1362.546065745091</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2454085179866644</v>
+        <v>0.1571865433652376</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7545914820133356</v>
+        <v>0.8428134566347624</v>
       </c>
       <c r="F93" t="n">
-        <v>3.032510338956331</v>
+        <v>4.583143580615854</v>
       </c>
       <c r="G93" t="n">
-        <v>65.81797414741735</v>
+        <v>244.2878989305163</v>
       </c>
       <c r="H93" t="n">
-        <v>214.2749766344936</v>
+        <v>1096.469518093159</v>
       </c>
       <c r="I93" t="n">
-        <v>639.6121783176001</v>
+        <v>4369.270077091993</v>
       </c>
       <c r="J93" t="n">
-        <v>15.53104951192527</v>
+        <v>36.92189463350422</v>
       </c>
       <c r="K93" t="n">
-        <v>57.5766288922445</v>
+        <v>202.1159943884716</v>
       </c>
       <c r="L93" t="n">
-        <v>189.6745082376628</v>
+        <v>928.420668974236</v>
       </c>
     </row>
     <row r="94">
@@ -4000,37 +4000,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1762.342381435336</v>
+        <v>7305.791799405921</v>
       </c>
       <c r="C94" t="n">
-        <v>460.2738783163605</v>
+        <v>1221.598619465112</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2611716560669053</v>
+        <v>0.1672096130038153</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7388283439330947</v>
+        <v>0.8327903869961847</v>
       </c>
       <c r="F94" t="n">
-        <v>2.856134278377099</v>
+        <v>4.344658742065272</v>
       </c>
       <c r="G94" t="n">
-        <v>47.75546409136063</v>
+        <v>197.9703158766076</v>
       </c>
       <c r="H94" t="n">
-        <v>148.4570024870763</v>
+        <v>852.1816191626428</v>
       </c>
       <c r="I94" t="n">
-        <v>425.3372016831066</v>
+        <v>3272.800558998833</v>
       </c>
       <c r="J94" t="n">
-        <v>11.99266696440796</v>
+        <v>31.82936529227945</v>
       </c>
       <c r="K94" t="n">
-        <v>42.04557938031923</v>
+        <v>165.1940997549674</v>
       </c>
       <c r="L94" t="n">
-        <v>132.0978793454183</v>
+        <v>726.3046745857645</v>
       </c>
     </row>
     <row r="95">
@@ -4038,37 +4038,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1302.068503118976</v>
+        <v>6084.193179940809</v>
       </c>
       <c r="C95" t="n">
-        <v>361.6494815299076</v>
+        <v>1081.783712003765</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2777499652772586</v>
+        <v>0.1778023281000241</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7222500347227414</v>
+        <v>0.8221976718999759</v>
       </c>
       <c r="F95" t="n">
-        <v>2.689014468278793</v>
+        <v>4.116598368687566</v>
       </c>
       <c r="G95" t="n">
-        <v>33.92604850805418</v>
+        <v>158.5267076659971</v>
       </c>
       <c r="H95" t="n">
-        <v>100.7015383957157</v>
+        <v>654.2113032860353</v>
       </c>
       <c r="I95" t="n">
-        <v>276.8801991960303</v>
+        <v>2420.61893983619</v>
       </c>
       <c r="J95" t="n">
-        <v>9.06053730298715</v>
+        <v>27.10232470100597</v>
       </c>
       <c r="K95" t="n">
-        <v>30.05291241591125</v>
+        <v>133.364734462688</v>
       </c>
       <c r="L95" t="n">
-        <v>90.05229996509908</v>
+        <v>561.1105748307968</v>
       </c>
     </row>
     <row r="96">
@@ -4076,37 +4076,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>940.4190215890683</v>
+        <v>5002.409467937045</v>
       </c>
       <c r="C96" t="n">
-        <v>277.5712488175009</v>
+        <v>945.3921886226514</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2951569911340971</v>
+        <v>0.1889873659247898</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7048430088659029</v>
+        <v>0.8110126340752102</v>
       </c>
       <c r="F96" t="n">
-        <v>2.530826393963575</v>
+        <v>3.898696922031106</v>
       </c>
       <c r="G96" t="n">
-        <v>23.56066318552648</v>
+        <v>125.3272019009143</v>
       </c>
       <c r="H96" t="n">
-        <v>66.77548988766148</v>
+        <v>495.6845956200382</v>
       </c>
       <c r="I96" t="n">
-        <v>176.1786608003146</v>
+        <v>1766.407636550156</v>
       </c>
       <c r="J96" t="n">
-        <v>6.686629283619119</v>
+        <v>22.77428631344047</v>
       </c>
       <c r="K96" t="n">
-        <v>20.9923751129241</v>
+        <v>106.262409761682</v>
       </c>
       <c r="L96" t="n">
-        <v>59.99938754918782</v>
+        <v>427.745840368109</v>
       </c>
     </row>
     <row r="97">
@@ -4114,37 +4114,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>662.8477727715674</v>
+        <v>4057.017279314393</v>
       </c>
       <c r="C97" t="n">
-        <v>207.7377659439198</v>
+        <v>814.5959275197723</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3134019219455249</v>
+        <v>0.2007869011732267</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6865980780544751</v>
+        <v>0.7992130988267733</v>
       </c>
       <c r="F97" t="n">
-        <v>2.381246417171943</v>
+        <v>3.690683078453652</v>
       </c>
       <c r="G97" t="n">
-        <v>15.96785454861787</v>
+        <v>97.73263859128477</v>
       </c>
       <c r="H97" t="n">
-        <v>43.21482670213501</v>
+        <v>370.3573937191239</v>
       </c>
       <c r="I97" t="n">
-        <v>109.4031709126532</v>
+        <v>1270.723040930117</v>
       </c>
       <c r="J97" t="n">
-        <v>4.811881062387916</v>
+        <v>18.86868619829517</v>
       </c>
       <c r="K97" t="n">
-        <v>14.30574582930499</v>
+        <v>83.48812344824151</v>
       </c>
       <c r="L97" t="n">
-        <v>39.00701243626371</v>
+        <v>321.4834306064271</v>
       </c>
     </row>
     <row r="98">
@@ -4152,37 +4152,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>455.1100068276476</v>
+        <v>3242.421351794621</v>
       </c>
       <c r="C98" t="n">
-        <v>151.3189958809839</v>
+        <v>691.3566980641526</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3324888348110728</v>
+        <v>0.2132223493043245</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6675111651889272</v>
+        <v>0.7867776506956755</v>
       </c>
       <c r="F98" t="n">
-        <v>2.239952932147128</v>
+        <v>3.492280761085502</v>
       </c>
       <c r="G98" t="n">
-        <v>10.54182523436004</v>
+        <v>75.10500475486324</v>
       </c>
       <c r="H98" t="n">
-        <v>27.24697215351713</v>
+        <v>272.6247551278392</v>
       </c>
       <c r="I98" t="n">
-        <v>66.18834421051815</v>
+        <v>900.365647210993</v>
       </c>
       <c r="J98" t="n">
-        <v>3.370229989379167</v>
+        <v>15.39813995994654</v>
       </c>
       <c r="K98" t="n">
-        <v>9.493864766917069</v>
+        <v>64.61943724994634</v>
       </c>
       <c r="L98" t="n">
-        <v>24.70126660695873</v>
+        <v>237.9953071581855</v>
       </c>
     </row>
     <row r="99">
@@ -4190,37 +4190,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>303.7910109466637</v>
+        <v>2551.064653730468</v>
       </c>
       <c r="C99" t="n">
-        <v>107.0607804587832</v>
+        <v>577.3418386852203</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3524158931666999</v>
+        <v>0.2263140755139086</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6475841068333001</v>
+        <v>0.7736859244860914</v>
       </c>
       <c r="F99" t="n">
-        <v>2.106627458665303</v>
+        <v>3.303210168005789</v>
       </c>
       <c r="G99" t="n">
-        <v>6.766140428274715</v>
+        <v>56.8182107658835</v>
       </c>
       <c r="H99" t="n">
-        <v>16.70514691915709</v>
+        <v>197.519750372976</v>
       </c>
       <c r="I99" t="n">
-        <v>38.94137205700102</v>
+        <v>627.7408920831538</v>
       </c>
       <c r="J99" t="n">
-        <v>2.29278405992476</v>
+        <v>12.36419311714936</v>
       </c>
       <c r="K99" t="n">
-        <v>6.123634777537902</v>
+        <v>49.2212972899998</v>
       </c>
       <c r="L99" t="n">
-        <v>15.20740184004166</v>
+        <v>173.3758699082392</v>
       </c>
     </row>
     <row r="100">
@@ -4228,37 +4228,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>196.7302304878805</v>
+        <v>1973.722815045248</v>
       </c>
       <c r="C100" t="n">
-        <v>73.41470632952579</v>
+        <v>473.8534801032815</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3731745047391101</v>
+        <v>0.2400810673571802</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6268254952608899</v>
+        <v>0.7599189326428198</v>
       </c>
       <c r="F100" t="n">
-        <v>1.980955665391087</v>
+        <v>3.123188789259384</v>
       </c>
       <c r="G100" t="n">
-        <v>4.213120198031696</v>
+        <v>42.26870185004631</v>
       </c>
       <c r="H100" t="n">
-        <v>9.939006490882376</v>
+        <v>140.7015396070925</v>
       </c>
       <c r="I100" t="n">
-        <v>22.23622513784393</v>
+        <v>430.2211417101779</v>
       </c>
       <c r="J100" t="n">
-        <v>1.511758695487327</v>
+        <v>9.757610630732245</v>
       </c>
       <c r="K100" t="n">
-        <v>3.830850717613143</v>
+        <v>36.85710417285043</v>
       </c>
       <c r="L100" t="n">
-        <v>9.083767062503762</v>
+        <v>124.1545726182394</v>
       </c>
     </row>
     <row r="101">
@@ -4266,37 +4266,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>123.3155241583547</v>
+        <v>1499.869334941967</v>
       </c>
       <c r="C101" t="n">
-        <v>48.67861231106543</v>
+        <v>381.777594528648</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3947484523404786</v>
+        <v>0.2545405693912796</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6052515476595214</v>
+        <v>0.7454594306087204</v>
       </c>
       <c r="F101" t="n">
-        <v>1.862628317750065</v>
+        <v>2.951932405653523</v>
       </c>
       <c r="G101" t="n">
-        <v>2.539318418004689</v>
+        <v>30.88537191738921</v>
       </c>
       <c r="H101" t="n">
-        <v>5.725886292850679</v>
+        <v>98.43283775704612</v>
       </c>
       <c r="I101" t="n">
-        <v>12.29721864696155</v>
+        <v>289.5196021030854</v>
       </c>
       <c r="J101" t="n">
-        <v>0.9638384764490608</v>
+        <v>7.559211686263157</v>
       </c>
       <c r="K101" t="n">
-        <v>2.319092022125816</v>
+        <v>27.09949354211819</v>
       </c>
       <c r="L101" t="n">
-        <v>5.252916344890619</v>
+        <v>87.29746844538896</v>
       </c>
     </row>
     <row r="102">
@@ -4304,37 +4304,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>74.6369118472893</v>
+        <v>1118.091740413319</v>
       </c>
       <c r="C102" t="n">
-        <v>31.13202726009181</v>
+        <v>301.5579278863569</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4171130140511364</v>
+        <v>0.2697076787052212</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5828869859488636</v>
+        <v>0.7302923212947788</v>
       </c>
       <c r="F102" t="n">
-        <v>1.75134214529361</v>
+        <v>2.789156062659703</v>
       </c>
       <c r="G102" t="n">
-        <v>1.477813848555447</v>
+        <v>22.13826131122646</v>
       </c>
       <c r="H102" t="n">
-        <v>3.18656787484599</v>
+        <v>67.54746583965692</v>
       </c>
       <c r="I102" t="n">
-        <v>6.571332354110874</v>
+        <v>191.0867643460394</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5927071044014157</v>
+        <v>5.741210643096629</v>
       </c>
       <c r="K102" t="n">
-        <v>1.355253545676756</v>
+        <v>19.54028185585504</v>
       </c>
       <c r="L102" t="n">
-        <v>2.933824322764803</v>
+        <v>60.19797490327077</v>
       </c>
     </row>
     <row r="103">
@@ -4342,37 +4342,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>43.50488458719749</v>
+        <v>816.5338125269617</v>
       </c>
       <c r="C103" t="n">
-        <v>19.15233344984342</v>
+        <v>233.1978932455229</v>
       </c>
       <c r="D103" t="n">
-        <v>0.440234093977565</v>
+        <v>0.2855949008698556</v>
       </c>
       <c r="E103" t="n">
-        <v>0.559765906022435</v>
+        <v>0.7144050991301444</v>
       </c>
       <c r="F103" t="n">
-        <v>1.646800624235226</v>
+        <v>2.634575013196249</v>
       </c>
       <c r="G103" t="n">
-        <v>0.8282677499788221</v>
+        <v>15.54557907923651</v>
       </c>
       <c r="H103" t="n">
-        <v>1.708754026290543</v>
+        <v>45.40920452843046</v>
       </c>
       <c r="I103" t="n">
-        <v>3.384764479264884</v>
+        <v>123.5392985063824</v>
       </c>
       <c r="J103" t="n">
-        <v>0.350607406233426</v>
+        <v>4.268978957787549</v>
       </c>
       <c r="K103" t="n">
-        <v>0.7625464412753395</v>
+        <v>13.7990712127584</v>
       </c>
       <c r="L103" t="n">
-        <v>1.578570777088047</v>
+        <v>40.65769304741573</v>
       </c>
     </row>
     <row r="104">
@@ -4380,37 +4380,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>24.35255113735407</v>
+        <v>583.3359192814388</v>
       </c>
       <c r="C104" t="n">
-        <v>11.30122484292638</v>
+        <v>176.2909204127268</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4640673898674859</v>
+        <v>0.3022116667012112</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5359326101325141</v>
+        <v>0.6977883332987888</v>
       </c>
       <c r="F104" t="n">
-        <v>1.548714671431352</v>
+        <v>2.487905623567491</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4458038918231336</v>
+        <v>10.67869323378601</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8804862763117208</v>
+        <v>29.86362544919395</v>
       </c>
       <c r="I104" t="n">
-        <v>1.676010452974342</v>
+        <v>78.13009397795197</v>
       </c>
       <c r="J104" t="n">
-        <v>0.198926008145316</v>
+        <v>3.103101615743671</v>
       </c>
       <c r="K104" t="n">
-        <v>0.4119390350419135</v>
+        <v>9.530092254970857</v>
       </c>
       <c r="L104" t="n">
-        <v>0.8160243358127075</v>
+        <v>26.85862183465733</v>
       </c>
     </row>
     <row r="105">
@@ -4418,37 +4418,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13.05132629442769</v>
+        <v>407.044998868712</v>
       </c>
       <c r="C105" t="n">
-        <v>6.376325033478565</v>
+        <v>130.0768512148084</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4885576292886769</v>
+        <v>0.319563811314049</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5114423707113231</v>
+        <v>0.680436188685951</v>
       </c>
       <c r="F105" t="n">
-        <v>1.456803246535135</v>
+        <v>2.348866237372707</v>
       </c>
       <c r="G105" t="n">
-        <v>0.2297315801461586</v>
+        <v>7.16487264751211</v>
       </c>
       <c r="H105" t="n">
-        <v>0.4346823844885872</v>
+        <v>19.18493221540794</v>
       </c>
       <c r="I105" t="n">
-        <v>0.7955241766626211</v>
+        <v>48.26646852875805</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1079203040086047</v>
+        <v>2.201571164248798</v>
       </c>
       <c r="K105" t="n">
-        <v>0.2130130268965975</v>
+        <v>6.426990639227187</v>
       </c>
       <c r="L105" t="n">
-        <v>0.4040853007707941</v>
+        <v>17.32852957968647</v>
       </c>
     </row>
     <row r="106">
@@ -4456,37 +4456,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.675001260949127</v>
+        <v>276.9681476539036</v>
       </c>
       <c r="C106" t="n">
-        <v>3.428533707867818</v>
+        <v>93.51913102143297</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5136379116399313</v>
+        <v>0.3376530182752042</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4863620883600687</v>
+        <v>0.6623469817247958</v>
       </c>
       <c r="F106" t="n">
-        <v>1.370793859344105</v>
+        <v>2.217177992756692</v>
       </c>
       <c r="G106" t="n">
-        <v>0.1129754461319324</v>
+        <v>4.687729458358998</v>
       </c>
       <c r="H106" t="n">
-        <v>0.2049508043424286</v>
+        <v>12.02005956789583</v>
       </c>
       <c r="I106" t="n">
-        <v>0.3608417921740338</v>
+        <v>29.0815363133501</v>
       </c>
       <c r="J106" t="n">
-        <v>0.05579660790172626</v>
+        <v>1.521948077377408</v>
       </c>
       <c r="K106" t="n">
-        <v>0.1050927228879928</v>
+        <v>4.225419474978389</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1910722738741965</v>
+        <v>10.90153894045929</v>
       </c>
     </row>
     <row r="107">
@@ -4494,37 +4494,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.246467553081309</v>
+        <v>183.4490166324706</v>
       </c>
       <c r="C107" t="n">
-        <v>1.750590097204365</v>
+        <v>65.39521444660107</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5392291986848392</v>
+        <v>0.3564762332720298</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4607708013151608</v>
+        <v>0.6435237667279702</v>
       </c>
       <c r="F107" t="n">
-        <v>1.290422979472508</v>
+        <v>2.092565588938061</v>
       </c>
       <c r="G107" t="n">
-        <v>0.05283362876359334</v>
+        <v>2.985484094121629</v>
       </c>
       <c r="H107" t="n">
-        <v>0.09197535821049618</v>
+        <v>7.332330109536835</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1558909878316053</v>
+        <v>17.06147674545427</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02739368779019684</v>
+        <v>1.023321273428881</v>
       </c>
       <c r="K107" t="n">
-        <v>0.04929611498626656</v>
+        <v>2.703471397600981</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08597955098620366</v>
+        <v>6.676119465480898</v>
       </c>
     </row>
     <row r="108">
@@ -4532,37 +4532,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.495877455876944</v>
+        <v>118.0538021858696</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8455297749699037</v>
+        <v>44.3911872956379</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5652400012100054</v>
+        <v>0.3760250536085766</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4347599987899946</v>
+        <v>0.6239749463914234</v>
       </c>
       <c r="F108" t="n">
-        <v>1.215436345394354</v>
+        <v>1.974757998504922</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02340787832864291</v>
+        <v>1.847336509380378</v>
       </c>
       <c r="H108" t="n">
-        <v>0.03914172944690286</v>
+        <v>4.346846015415205</v>
       </c>
       <c r="I108" t="n">
-        <v>0.06391562962110907</v>
+        <v>9.729146635917434</v>
       </c>
       <c r="J108" t="n">
-        <v>0.01272218189885171</v>
+        <v>0.6679277018969587</v>
       </c>
       <c r="K108" t="n">
-        <v>0.02190242719606972</v>
+        <v>1.6801501241721</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0366834359999371</v>
+        <v>3.972648067879918</v>
       </c>
     </row>
     <row r="109">
@@ -4570,37 +4570,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6503476809070404</v>
+        <v>73.66261489023165</v>
       </c>
       <c r="C109" t="n">
-        <v>0.384723779978961</v>
+        <v>29.19139685841386</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5915663133331795</v>
+        <v>0.396285102041428</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4084336866668205</v>
+        <v>0.603714897958572</v>
       </c>
       <c r="F109" t="n">
-        <v>1.14558916962353</v>
+        <v>1.863489122494026</v>
       </c>
       <c r="G109" t="n">
-        <v>0.00978539341715109</v>
+        <v>1.108357403276481</v>
       </c>
       <c r="H109" t="n">
-        <v>0.01573385111825993</v>
+        <v>2.499509506034828</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02477390017420622</v>
+        <v>5.38230062050223</v>
       </c>
       <c r="J109" t="n">
-        <v>0.00556606645028734</v>
+        <v>0.422332237169031</v>
       </c>
       <c r="K109" t="n">
-        <v>0.009180245297218014</v>
+        <v>1.012222422275141</v>
       </c>
       <c r="L109" t="n">
-        <v>0.01478100880386738</v>
+        <v>2.292497943707819</v>
       </c>
     </row>
     <row r="110">
@@ -4608,37 +4608,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.2656239009280795</v>
+        <v>44.47121803181779</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1641799678883173</v>
+        <v>18.55496626462636</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6180918483415045</v>
+        <v>0.4172353959666868</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3819081516584955</v>
+        <v>0.5827646040333132</v>
       </c>
       <c r="F110" t="n">
-        <v>1.080646236337918</v>
+        <v>1.758498385752262</v>
       </c>
       <c r="G110" t="n">
-        <v>0.003842965681588707</v>
+        <v>0.6433960352122005</v>
       </c>
       <c r="H110" t="n">
-        <v>0.005948457701108843</v>
+        <v>1.391152102758347</v>
       </c>
       <c r="I110" t="n">
-        <v>0.009040049055946285</v>
+        <v>2.882791114467402</v>
       </c>
       <c r="J110" t="n">
-        <v>0.002283947847352051</v>
+        <v>0.2581226918414988</v>
       </c>
       <c r="K110" t="n">
-        <v>0.003614178846930674</v>
+        <v>0.58989018510611</v>
       </c>
       <c r="L110" t="n">
-        <v>0.005600763506649368</v>
+        <v>1.280275521432678</v>
       </c>
     </row>
     <row r="111">
@@ -4646,37 +4646,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1014439330397622</v>
+        <v>25.91625176719143</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0653997502177954</v>
+        <v>11.37328814802948</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6446886300451422</v>
+        <v>0.4388477257512771</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3553113699548578</v>
+        <v>0.5611522742487229</v>
       </c>
       <c r="F111" t="n">
-        <v>1.020381887153683</v>
+        <v>1.65953127050304</v>
       </c>
       <c r="G111" t="n">
-        <v>0.001411211461867859</v>
+        <v>0.3605273420163861</v>
       </c>
       <c r="H111" t="n">
-        <v>0.002105492019520135</v>
+        <v>0.7477560675461468</v>
       </c>
       <c r="I111" t="n">
-        <v>0.003091591354837442</v>
+        <v>1.491639011709054</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0008747999846688387</v>
+        <v>0.1521313501106191</v>
       </c>
       <c r="K111" t="n">
-        <v>0.001330230999578623</v>
+        <v>0.3317674932646111</v>
       </c>
       <c r="L111" t="n">
-        <v>0.001986584659718695</v>
+        <v>0.6903853363265674</v>
       </c>
     </row>
     <row r="112">
@@ -4684,37 +4684,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.03604418282196675</v>
+        <v>14.54296361916196</v>
       </c>
       <c r="C112" t="n">
-        <v>0.02419350397125737</v>
+        <v>6.705557781709182</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6712179907297799</v>
+        <v>0.4610860590254019</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3287820092702201</v>
+        <v>0.5389139409745981</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9645798900828808</v>
+        <v>1.566339786389414</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0004821341132810254</v>
+        <v>0.1945295556743675</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0006942805576522764</v>
+        <v>0.3872287255297605</v>
       </c>
       <c r="I112" t="n">
-        <v>0.000986099335317307</v>
+        <v>0.7438829441629078</v>
       </c>
       <c r="J112" t="n">
-        <v>0.000311170279594975</v>
+        <v>0.0862450636440929</v>
       </c>
       <c r="K112" t="n">
-        <v>0.000455431014909784</v>
+        <v>0.1796361431539921</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0006563536601400723</v>
+        <v>0.3586178430619563</v>
       </c>
     </row>
     <row r="113">
@@ -4722,37 +4722,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.01185067885070938</v>
+        <v>7.837405837452775</v>
       </c>
       <c r="C113" t="n">
-        <v>0.008266227958171697</v>
+        <v>3.792567638257023</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6975320200898771</v>
+        <v>0.4839059909509089</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3024679799101229</v>
+        <v>0.5160940090490911</v>
       </c>
       <c r="F113" t="n">
-        <v>0.91303318607391</v>
+        <v>1.478682875527387</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0001524202139444725</v>
+        <v>0.1008025860427989</v>
       </c>
       <c r="H113" t="n">
-        <v>0.000212146444371251</v>
+        <v>0.1926991698553931</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0002918187776650308</v>
+        <v>0.3566542186331472</v>
       </c>
       <c r="J113" t="n">
-        <v>0.00010222882666848</v>
+        <v>0.04690286085524507</v>
       </c>
       <c r="K113" t="n">
-        <v>0.000144260735314809</v>
+        <v>0.09339107950989922</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0002009226452302883</v>
+        <v>0.1789816999079644</v>
       </c>
     </row>
     <row r="114">
@@ -4760,37 +4760,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.003584450892537683</v>
+        <v>4.044838199195752</v>
       </c>
       <c r="C114" t="n">
-        <v>0.002593262395458929</v>
+        <v>2.051761422723815</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7234754982576922</v>
+        <v>0.5072542637507165</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2765245017423078</v>
+        <v>0.4927457362492835</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8655435071065745</v>
+        <v>1.396326751264989</v>
       </c>
       <c r="G114" t="n">
-        <v>4.432907135505129e-05</v>
+        <v>0.0500227026474462</v>
       </c>
       <c r="H114" t="n">
-        <v>5.972623042677853e-05</v>
+        <v>0.09189658381259415</v>
       </c>
       <c r="I114" t="n">
-        <v>7.967233329377972e-05</v>
+        <v>0.1639550487777542</v>
       </c>
       <c r="J114" t="n">
-        <v>3.083749710182357e-05</v>
+        <v>0.02439829730985706</v>
       </c>
       <c r="K114" t="n">
-        <v>4.203190864632904e-05</v>
+        <v>0.04648821865465411</v>
       </c>
       <c r="L114" t="n">
-        <v>5.666190991547931e-05</v>
+        <v>0.08559062039806513</v>
       </c>
     </row>
     <row r="115">
@@ -4798,37 +4798,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0009911884970787532</v>
+        <v>1.993076776471937</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0007422894978600364</v>
+        <v>1.058460058853705</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7488883295636743</v>
+        <v>0.5310683819854387</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2511116704363257</v>
+        <v>0.4689316180145613</v>
       </c>
       <c r="F115" t="n">
-        <v>0.821920859827543</v>
+        <v>1.319045169396516</v>
       </c>
       <c r="G115" t="n">
-        <v>1.178660997034112e-05</v>
+        <v>0.02370045523576429</v>
       </c>
       <c r="H115" t="n">
-        <v>1.539715907172724e-05</v>
+        <v>0.04187388116514793</v>
       </c>
       <c r="I115" t="n">
-        <v>1.994610286700119e-05</v>
+        <v>0.07205846496516004</v>
       </c>
       <c r="J115" t="n">
-        <v>8.487360242218568e-06</v>
+        <v>0.0121024638599766</v>
       </c>
       <c r="K115" t="n">
-        <v>1.119441154450546e-05</v>
+        <v>0.02208992134479706</v>
       </c>
       <c r="L115" t="n">
-        <v>1.463000126915027e-05</v>
+        <v>0.039102401743411</v>
       </c>
     </row>
     <row r="116">
@@ -4836,37 +4836,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0002488989992187168</v>
+        <v>0.9346167176182314</v>
       </c>
       <c r="C116" t="n">
-        <v>0.000192550374358279</v>
+        <v>0.518970562418671</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7736084715594932</v>
+        <v>0.5552763530072635</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2263915284405068</v>
+        <v>0.4447236469927365</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7819828694866351</v>
+        <v>1.246619630521657</v>
       </c>
       <c r="G116" t="n">
-        <v>2.845918575417125e-06</v>
+        <v>0.01068643540518137</v>
       </c>
       <c r="H116" t="n">
-        <v>3.610549101386115e-06</v>
+        <v>0.01817342592938364</v>
       </c>
       <c r="I116" t="n">
-        <v>4.548943795273954e-06</v>
+        <v>0.03018458380001208</v>
       </c>
       <c r="J116" t="n">
-        <v>2.116948768568473e-06</v>
+        <v>0.005705696998496933</v>
       </c>
       <c r="K116" t="n">
-        <v>2.707051302286889e-06</v>
+        <v>0.009987457484820461</v>
       </c>
       <c r="L116" t="n">
-        <v>3.435589724644809e-06</v>
+        <v>0.01701248039861394</v>
       </c>
     </row>
     <row r="117">
@@ -4874,37 +4874,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.634862486043781e-05</v>
+        <v>0.4156461551995604</v>
       </c>
       <c r="C117" t="n">
-        <v>4.493663798422546e-05</v>
+        <v>0.240990221132995</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7974753260709178</v>
+        <v>0.5797965844704869</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2025246739290822</v>
+        <v>0.4202034155295131</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7455539808802392</v>
+        <v>1.178839512066359</v>
       </c>
       <c r="G117" t="n">
-        <v>6.19511400101839e-07</v>
+        <v>0.004569721660331308</v>
       </c>
       <c r="H117" t="n">
-        <v>7.646305259689905e-07</v>
+        <v>0.00748699052420227</v>
       </c>
       <c r="I117" t="n">
-        <v>9.383946938878388e-07</v>
+        <v>0.01201115787062844</v>
       </c>
       <c r="J117" t="n">
-        <v>4.750433228854469e-07</v>
+        <v>0.002547604817923938</v>
       </c>
       <c r="K117" t="n">
-        <v>5.901025337184162e-07</v>
+        <v>0.004281760486323529</v>
       </c>
       <c r="L117" t="n">
-        <v>7.285384223579197e-07</v>
+        <v>0.007025022913793483</v>
       </c>
     </row>
     <row r="118">
@@ -4912,37 +4912,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.141198687621234e-05</v>
+        <v>0.1746559340665654</v>
       </c>
       <c r="C118" t="n">
-        <v>9.361635434251816e-06</v>
+        <v>0.1055861442559073</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8203335261246775</v>
+        <v>0.6045379724439595</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1796664738753225</v>
+        <v>0.3954620275560405</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7124645166258825</v>
+        <v>1.115502128203621</v>
       </c>
       <c r="G118" t="n">
-        <v>1.206407156740136e-07</v>
+        <v>0.001846358317010013</v>
       </c>
       <c r="H118" t="n">
-        <v>1.451191258671514e-07</v>
+        <v>0.002917268863870962</v>
       </c>
       <c r="I118" t="n">
-        <v>1.737641679188482e-07</v>
+        <v>0.004524167346426174</v>
       </c>
       <c r="J118" t="n">
-        <v>9.515925354141172e-08</v>
+        <v>0.001073263185932956</v>
       </c>
       <c r="K118" t="n">
-        <v>1.150592108329693e-07</v>
+        <v>0.001734155668399591</v>
       </c>
       <c r="L118" t="n">
-        <v>1.384358886395034e-07</v>
+        <v>0.002743262427469954</v>
       </c>
     </row>
     <row r="119">
@@ -4950,37 +4950,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2.050351441960529e-06</v>
+        <v>0.06906978981065807</v>
       </c>
       <c r="C119" t="n">
-        <v>1.7264718093382e-06</v>
+        <v>0.04347254050262208</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8420370157066159</v>
+        <v>0.6294002142151284</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1579629842933841</v>
+        <v>0.3705997857848716</v>
       </c>
       <c r="F119" t="n">
-        <v>0.6825495989492163</v>
+        <v>1.056412715545486</v>
       </c>
       <c r="G119" t="n">
-        <v>2.084143460667824e-08</v>
+        <v>0.0007020813496535944</v>
       </c>
       <c r="H119" t="n">
-        <v>2.447841019313784e-08</v>
+        <v>0.001070910546860948</v>
       </c>
       <c r="I119" t="n">
-        <v>2.864504205169679e-08</v>
+        <v>0.001606898482555212</v>
       </c>
       <c r="J119" t="n">
-        <v>1.687428788389609e-08</v>
+        <v>0.0004248943767965564</v>
       </c>
       <c r="K119" t="n">
-        <v>1.989995729155755e-08</v>
+        <v>0.0006608924824666346</v>
       </c>
       <c r="L119" t="n">
-        <v>2.337667780653411e-08</v>
+        <v>0.001009106759070363</v>
       </c>
     </row>
     <row r="120">
@@ -4988,37 +4988,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.238796326223284e-07</v>
+        <v>0.02559724930803599</v>
       </c>
       <c r="C120" t="n">
-        <v>2.7933105163661e-07</v>
+        <v>0.01674762439305756</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8624532804825491</v>
+        <v>0.6542743789192934</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1375467195174509</v>
+        <v>0.3457256210807066</v>
       </c>
       <c r="F120" t="n">
-        <v>0.6556479498397396</v>
+        <v>1.001384342052687</v>
       </c>
       <c r="G120" t="n">
-        <v>3.165553084063756e-09</v>
+        <v>0.0002501838440242073</v>
       </c>
       <c r="H120" t="n">
-        <v>3.636975586459596e-09</v>
+        <v>0.0003688291972073541</v>
       </c>
       <c r="I120" t="n">
-        <v>4.166631858558938e-09</v>
+        <v>0.0005359879356942637</v>
       </c>
       <c r="J120" t="n">
-        <v>2.625136194127343e-09</v>
+        <v>0.000157393153042865</v>
       </c>
       <c r="K120" t="n">
-        <v>3.025669407661464e-09</v>
+        <v>0.0002359981056700783</v>
       </c>
       <c r="L120" t="n">
-        <v>3.47672051497656e-09</v>
+        <v>0.0003482142766037285</v>
       </c>
     </row>
     <row r="121">
@@ -5026,37 +5026,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.454858098571844e-08</v>
+        <v>0.00884962491497843</v>
       </c>
       <c r="C121" t="n">
-        <v>3.926812852764933e-08</v>
+        <v>0.006009282632311029</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8814675497798249</v>
+        <v>0.6790437662662989</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1185324502201751</v>
+        <v>0.3209562337337011</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6316005964067513</v>
+        <v>0.9502377361718384</v>
       </c>
       <c r="G121" t="n">
-        <v>4.186648482416529e-10</v>
+        <v>8.316823544194971e-05</v>
       </c>
       <c r="H121" t="n">
-        <v>4.714225023958401e-10</v>
+        <v>0.0001186453531831467</v>
       </c>
       <c r="I121" t="n">
-        <v>5.296562720993432e-10</v>
+        <v>0.0001671587384869097</v>
       </c>
       <c r="J121" t="n">
-        <v>3.548456518831846e-10</v>
+        <v>5.430276137329212e-05</v>
       </c>
       <c r="K121" t="n">
-        <v>4.005332135341205e-10</v>
+        <v>7.860495262721329e-05</v>
       </c>
       <c r="L121" t="n">
-        <v>4.510511073150961e-10</v>
+        <v>0.0001122161709336502</v>
       </c>
     </row>
     <row r="122">
@@ -5064,37 +5064,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.280452458069111e-09</v>
+        <v>0.002840342282667402</v>
       </c>
       <c r="C122" t="n">
-        <v>4.74705683132055e-09</v>
+        <v>0.00199842244781446</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8989867571038398</v>
+        <v>0.7035850784637532</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1010132428961602</v>
+        <v>0.2964149215362468</v>
       </c>
       <c r="F122" t="n">
-        <v>0.610249523757435</v>
+        <v>0.9028010328205769</v>
       </c>
       <c r="G122" t="n">
-        <v>4.771670219532778e-11</v>
+        <v>2.566669578242874e-05</v>
       </c>
       <c r="H122" t="n">
-        <v>5.275765415418718e-11</v>
+        <v>3.5477117741197e-05</v>
       </c>
       <c r="I122" t="n">
-        <v>5.823376970350301e-11</v>
+        <v>4.8513385303763e-05</v>
       </c>
       <c r="J122" t="n">
-        <v>4.124681092910326e-11</v>
+        <v>1.736413862113982e-05</v>
       </c>
       <c r="K122" t="n">
-        <v>4.568756165093596e-11</v>
+        <v>2.430219125392116e-05</v>
       </c>
       <c r="L122" t="n">
-        <v>5.051789378097551e-11</v>
+        <v>3.361121830643688e-05</v>
       </c>
     </row>
     <row r="123">
@@ -5102,37 +5102,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.333956267485613e-10</v>
+        <v>0.0008419198348529421</v>
       </c>
       <c r="C123" t="n">
-        <v>4.880266070796312e-10</v>
+        <v>0.0006127239330279907</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9149430227887552</v>
+        <v>0.7277699225782168</v>
       </c>
       <c r="E123" t="n">
-        <v>0.08505697721124483</v>
+        <v>0.2722300774217832</v>
       </c>
       <c r="F123" t="n">
-        <v>0.5914363364293679</v>
+        <v>0.8589094325378646</v>
       </c>
       <c r="G123" t="n">
-        <v>4.63463348948114e-12</v>
+        <v>7.315376554272435e-06</v>
       </c>
       <c r="H123" t="n">
-        <v>5.040951958859401e-12</v>
+        <v>9.810421958768261e-06</v>
       </c>
       <c r="I123" t="n">
-        <v>5.476115549315833e-12</v>
+        <v>1.3036267562566e-05</v>
       </c>
       <c r="J123" t="n">
-        <v>4.077332283061413e-12</v>
+        <v>5.119145219743607e-06</v>
       </c>
       <c r="K123" t="n">
-        <v>4.440750721832701e-12</v>
+        <v>6.938052632781346e-06</v>
       </c>
       <c r="L123" t="n">
-        <v>4.83033213003956e-12</v>
+        <v>9.30902705251572e-06</v>
       </c>
     </row>
     <row r="124">
@@ -5140,37 +5140,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.536901966893003e-11</v>
+        <v>0.0002291959018249513</v>
       </c>
       <c r="C124" t="n">
-        <v>4.216126723831108e-11</v>
+        <v>0.0001722330764787274</v>
       </c>
       <c r="D124" t="n">
-        <v>0.929296412970199</v>
+        <v>0.7514666497408435</v>
       </c>
       <c r="E124" t="n">
-        <v>0.07070358702980095</v>
+        <v>0.2485333502591565</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5750010102319943</v>
+        <v>0.8184047697337413</v>
       </c>
       <c r="G124" t="n">
-        <v>3.790460722089129e-13</v>
+        <v>1.91487069782604e-06</v>
       </c>
       <c r="H124" t="n">
-        <v>4.063184693782608e-13</v>
+        <v>2.495045404495827e-06</v>
       </c>
       <c r="I124" t="n">
-        <v>4.351635904564322e-13</v>
+        <v>3.22584560379774e-06</v>
       </c>
       <c r="J124" t="n">
-        <v>3.386982262059478e-13</v>
+        <v>1.383616796136775e-06</v>
       </c>
       <c r="K124" t="n">
-        <v>3.634184387712875e-13</v>
+        <v>1.818907413037739e-06</v>
       </c>
       <c r="L124" t="n">
-        <v>3.895814082068596e-13</v>
+        <v>2.370974419734375e-06</v>
       </c>
     </row>
     <row r="125">
@@ -5178,37 +5178,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.207752430618946e-12</v>
+        <v>5.696282534622386e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>3.021820638167958e-12</v>
+        <v>4.412013049715225e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9420367386596877</v>
+        <v>0.7745425236369008</v>
       </c>
       <c r="E125" t="n">
-        <v>0.05796326134031227</v>
+        <v>0.2254574763630992</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5607808370511962</v>
+        <v>0.7811349841046558</v>
       </c>
       <c r="G125" t="n">
-        <v>2.576915091800681e-14</v>
+        <v>4.576050286959564e-07</v>
       </c>
       <c r="H125" t="n">
-        <v>2.727239716934789e-14</v>
+        <v>5.801747066697867e-07</v>
       </c>
       <c r="I125" t="n">
-        <v>2.884512107817138e-14</v>
+        <v>7.308001993019131e-07</v>
       </c>
       <c r="J125" t="n">
-        <v>2.334181431618118e-14</v>
+        <v>3.408024555337523e-07</v>
       </c>
       <c r="K125" t="n">
-        <v>2.472021256533958e-14</v>
+        <v>4.352906169009645e-07</v>
       </c>
       <c r="L125" t="n">
-        <v>2.616296943557206e-14</v>
+        <v>5.520670066966361e-07</v>
       </c>
     </row>
     <row r="126">
@@ -5216,37 +5216,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.859317924509878e-13</v>
+        <v>1.284269484907162e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>1.772272451896336e-13</v>
+        <v>1.023390936084513e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9531841911132612</v>
+        <v>0.7968661936700088</v>
       </c>
       <c r="E126" t="n">
-        <v>0.04681580888673875</v>
+        <v>0.2031338063299912</v>
       </c>
       <c r="F126" t="n">
-        <v>0.548609682163008</v>
+        <v>0.7469534771687411</v>
       </c>
       <c r="G126" t="n">
-        <v>1.436215412671516e-15</v>
+        <v>9.920237975082106e-08</v>
       </c>
       <c r="H126" t="n">
-        <v>1.503246251341078e-15</v>
+        <v>1.225696779738303e-07</v>
       </c>
       <c r="I126" t="n">
-        <v>1.572723908823486e-15</v>
+        <v>1.506254926321265e-07</v>
       </c>
       <c r="J126" t="n">
-        <v>1.31632483306894e-15</v>
+        <v>7.601059880292646e-08</v>
       </c>
       <c r="K126" t="n">
-        <v>1.378398249158397e-15</v>
+        <v>9.448816136721219e-08</v>
       </c>
       <c r="L126" t="n">
-        <v>1.442756870232482e-15</v>
+        <v>1.167763897956716e-07</v>
       </c>
     </row>
     <row r="127">
@@ -5254,37 +5254,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>8.704547261354222e-15</v>
+        <v>2.608785488226489e-06</v>
       </c>
       <c r="C127" t="n">
-        <v>8.380639453962839e-15</v>
+        <v>2.134796370449173e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>0.962788666927062</v>
+        <v>0.8183104283903599</v>
       </c>
       <c r="E127" t="n">
-        <v>0.037211333072938</v>
+        <v>0.1816895716096401</v>
       </c>
       <c r="F127" t="n">
-        <v>0.538317681973822</v>
+        <v>0.7157182579819563</v>
       </c>
       <c r="G127" t="n">
-        <v>6.465152526905607e-17</v>
+        <v>1.937630480363223e-08</v>
       </c>
       <c r="H127" t="n">
-        <v>6.703083866956177e-17</v>
+        <v>2.336729822300926e-08</v>
       </c>
       <c r="I127" t="n">
-        <v>6.947765748240866e-17</v>
+        <v>2.805581465829618e-08</v>
       </c>
       <c r="J127" t="n">
-        <v>5.985168829672668e-17</v>
+        <v>1.524599258123316e-08</v>
       </c>
       <c r="K127" t="n">
-        <v>6.207341608945753e-17</v>
+        <v>1.847756256428572e-08</v>
       </c>
       <c r="L127" t="n">
-        <v>6.435862107408448e-17</v>
+        <v>2.22882284284594e-08</v>
       </c>
     </row>
     <row r="128">
@@ -5292,37 +5292,37 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.239078073913823e-16</v>
+        <v>4.739891177773165e-07</v>
       </c>
       <c r="C128" t="n">
-        <v>3.144910681566172e-16</v>
+        <v>3.975607628149608e-07</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9709277176410056</v>
+        <v>0.8387550428989758</v>
       </c>
       <c r="E128" t="n">
-        <v>0.02907228235899439</v>
+        <v>0.1612449571010242</v>
       </c>
       <c r="F128" t="n">
-        <v>0.529731504074726</v>
+        <v>0.687290255961563</v>
       </c>
       <c r="G128" t="n">
-        <v>2.313239846596455e-18</v>
+        <v>3.385069729951684e-09</v>
       </c>
       <c r="H128" t="n">
-        <v>2.37931340050569e-18</v>
+        <v>3.990993419377021e-09</v>
       </c>
       <c r="I128" t="n">
-        <v>2.446818812846889e-18</v>
+        <v>4.688516435286921e-09</v>
       </c>
       <c r="J128" t="n">
-        <v>2.159604504434736e-18</v>
+        <v>2.730042602463124e-09</v>
       </c>
       <c r="K128" t="n">
-        <v>2.221727792730851e-18</v>
+        <v>3.231569983052568e-09</v>
       </c>
       <c r="L128" t="n">
-        <v>2.285204984626963e-18</v>
+        <v>3.810665864173677e-09</v>
       </c>
     </row>
     <row r="129">
@@ -5330,37 +5330,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9.416739234765037e-18</v>
+        <v>7.642835496235569e-08</v>
       </c>
       <c r="C129" t="n">
-        <v>9.206775705571375e-18</v>
+        <v>6.558240184158327e-08</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9777031598774116</v>
+        <v>0.8580899310718576</v>
       </c>
       <c r="E129" t="n">
-        <v>0.02229684012258837</v>
+        <v>0.1419100689281424</v>
       </c>
       <c r="F129" t="n">
-        <v>0.522675265312553</v>
+        <v>0.6615262847831008</v>
       </c>
       <c r="G129" t="n">
-        <v>6.466457883108558e-20</v>
+        <v>5.248321378750334e-10</v>
       </c>
       <c r="H129" t="n">
-        <v>6.607355390923483e-20</v>
+        <v>6.059236894253372e-10</v>
       </c>
       <c r="I129" t="n">
-        <v>6.750541234119951e-20</v>
+        <v>6.975230159099006e-10</v>
       </c>
       <c r="J129" t="n">
-        <v>6.079111832239842e-20</v>
+        <v>4.330318971283491e-10</v>
       </c>
       <c r="K129" t="n">
-        <v>6.212328829611501e-20</v>
+        <v>5.015273805894434e-10</v>
       </c>
       <c r="L129" t="n">
-        <v>6.347719189611176e-20</v>
+        <v>5.790958811211102e-10</v>
       </c>
     </row>
     <row r="130">
@@ -5368,37 +5368,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2.099635291936612e-19</v>
+        <v>1.084595312077243e-08</v>
       </c>
       <c r="C130" t="n">
-        <v>2.064438045410808e-19</v>
+        <v>9.503420339782816e-09</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9832364950898975</v>
+        <v>0.8762180911128628</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01676350491010248</v>
+        <v>0.1237819088871372</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5169721443883564</v>
+        <v>0.6382299085830991</v>
       </c>
       <c r="G130" t="n">
-        <v>1.38636132287618e-21</v>
+        <v>7.161438928995223e-11</v>
       </c>
       <c r="H130" t="n">
-        <v>1.408975078149232e-21</v>
+        <v>8.109155155030386e-11</v>
       </c>
       <c r="I130" t="n">
-        <v>1.43185843196468e-21</v>
+        <v>9.159932648456355e-11</v>
       </c>
       <c r="J130" t="n">
-        <v>1.310693315416316e-21</v>
+        <v>6.033636873063017e-11</v>
       </c>
       <c r="K130" t="n">
-        <v>1.332169973716594e-21</v>
+        <v>6.849548346109439e-11</v>
       </c>
       <c r="L130" t="n">
-        <v>1.353903599996744e-21</v>
+        <v>7.756850053166679e-11</v>
       </c>
     </row>
     <row r="131">
@@ -5406,37 +5406,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.519724652580384e-21</v>
+        <v>1.342532780989615e-09</v>
       </c>
       <c r="C131" t="n">
-        <v>3.476303221262699e-21</v>
+        <v>1.198960329172906e-09</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9876634010885337</v>
+        <v>0.8930585130957637</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01233659891146632</v>
+        <v>0.1069414869042363</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5124460534579596</v>
+        <v>0.6167214161249962</v>
       </c>
       <c r="G131" t="n">
-        <v>2.234641811847213e-23</v>
+        <v>8.523620971246966e-12</v>
       </c>
       <c r="H131" t="n">
-        <v>2.261375527305223e-23</v>
+        <v>9.477162260351619e-12</v>
       </c>
       <c r="I131" t="n">
-        <v>2.288335381544752e-23</v>
+        <v>1.050777493425969e-11</v>
       </c>
       <c r="J131" t="n">
-        <v>2.122186473176597e-23</v>
+        <v>7.319319491128541e-12</v>
       </c>
       <c r="K131" t="n">
-        <v>2.147665830027781e-23</v>
+        <v>8.159114730464211e-12</v>
       </c>
       <c r="L131" t="n">
-        <v>2.17336262801504e-23</v>
+        <v>9.073017070572399e-12</v>
       </c>
     </row>
     <row r="132">
@@ -5444,37 +5444,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.342143131768435e-23</v>
+        <v>1.435724518167089e-10</v>
       </c>
       <c r="C132" t="n">
-        <v>4.303618145205509e-23</v>
+        <v>1.304425762420805e-10</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9911276562301539</v>
+        <v>0.9085487821062597</v>
       </c>
       <c r="E132" t="n">
-        <v>0.008872343769846136</v>
+        <v>0.09145121789374033</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5088723437698461</v>
+        <v>0.5914512178937403</v>
       </c>
       <c r="G132" t="n">
-        <v>2.650757667649178e-25</v>
+        <v>8.764699043012322e-13</v>
       </c>
       <c r="H132" t="n">
-        <v>2.673371545801042e-25</v>
+        <v>9.535412891046532e-13</v>
       </c>
       <c r="I132" t="n">
-        <v>2.695985423952907e-25</v>
+        <v>1.030612673908074e-12</v>
       </c>
       <c r="J132" t="n">
-        <v>2.526191571510807e-25</v>
+        <v>7.656881385631485e-13</v>
       </c>
       <c r="K132" t="n">
-        <v>2.547935685118369e-25</v>
+        <v>8.397952393356686e-13</v>
       </c>
       <c r="L132" t="n">
-        <v>2.56967979872593e-25</v>
+        <v>9.139023401081886e-13</v>
       </c>
     </row>
     <row r="133">
@@ -5482,10 +5482,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.852498656292586e-25</v>
+        <v>1.312987557462838e-11</v>
       </c>
       <c r="C133" t="n">
-        <v>3.852498656292586e-25</v>
+        <v>1.312987557462838e-11</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -5497,22 +5497,22 @@
         <v>0.5</v>
       </c>
       <c r="G133" t="n">
-        <v>2.261387815186448e-27</v>
+        <v>7.707138480342089e-14</v>
       </c>
       <c r="H133" t="n">
-        <v>2.261387815186448e-27</v>
+        <v>7.707138480342089e-14</v>
       </c>
       <c r="I133" t="n">
-        <v>2.261387815186448e-27</v>
+        <v>7.707138480342089e-14</v>
       </c>
       <c r="J133" t="n">
-        <v>2.1744113607562e-27</v>
+        <v>7.410710077252007e-14</v>
       </c>
       <c r="K133" t="n">
-        <v>2.1744113607562e-27</v>
+        <v>7.410710077252007e-14</v>
       </c>
       <c r="L133" t="n">
-        <v>2.1744113607562e-27</v>
+        <v>7.410710077252007e-14</v>
       </c>
     </row>
   </sheetData>
